--- a/trydoc.xlsx
+++ b/trydoc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA52B92-DC6B-433F-BF8D-6C340AC9B8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4188DF66-E0FC-4BC3-8BA6-6FE87260B0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20640" windowHeight="11310" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
   </bookViews>
@@ -443,7 +443,7 @@
       <sheetName val="."/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="26">
           <cell r="S26" t="str">
@@ -540,18 +540,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -857,7 +857,7 @@
   <dimension ref="A2:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trydoc.xlsx
+++ b/trydoc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpringProjects\spring-arquitectura-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17700008-6DFC-462A-8DCF-6633EC36F659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF3DC37-2307-4047-AFDF-26D5AAEE16E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Form-Envolvente-1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t xml:space="preserve">1.1) </t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>Elija una zona</t>
+  </si>
+  <si>
+    <t>Quitar cuando se pruebe UbicacionService</t>
   </si>
 </sst>
 </file>
@@ -835,25 +838,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1816,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CF74AF-C166-49CD-9383-F6A23EB42D93}">
   <dimension ref="B5:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,25 +1833,28 @@
   <sheetData>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="35">
+      <c r="C6" s="35"/>
+      <c r="D6" s="33">
         <v>7</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="30" t="s">
         <v>70</v>
       </c>
@@ -2008,8 +2014,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B5:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,6 +2045,9 @@
       <c r="C7" s="24">
         <v>209</v>
       </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
       <c r="R7" s="19" t="s">
         <v>53</v>
       </c>
@@ -2059,6 +2068,9 @@
       <c r="R10" s="18" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D15" s="17"/>
     </row>
     <row r="33" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R33" s="17"/>
@@ -2076,15 +2088,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BC8D1A6D9755BA4DACDC023AEE321D58" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8407c33dbc57c22b02890f9ab05f88f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cec9201-ec77-4532-add3-9cf0afa67a3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="414e73d62fa2934c35f1272b2dae311a" ns3:_="">
     <xsd:import namespace="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
@@ -2230,6 +2233,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2237,14 +2249,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB979463-6A6C-4761-86FC-11C8EC0FC4C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2258,6 +2262,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/trydoc.xlsx
+++ b/trydoc.xlsx
@@ -1,33 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpringProjects\spring-arquitectura-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DF8BE0-C839-4FAC-9184-30B23E39ED85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6C251F-331E-49D2-8C33-54FAA0424E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20640" windowHeight="11310" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
+    <workbookView xWindow="-3375" yWindow="4950" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Form-Envolvente-1" sheetId="1" r:id="rId1"/>
-    <sheet name="Form-Condensadores" sheetId="5" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
-    <sheet name="Form-Solar" sheetId="4" r:id="rId4"/>
+    <sheet name="Form-Envolvente-2" sheetId="6" r:id="rId2"/>
+    <sheet name="Form-Envolvente-3" sheetId="7" r:id="rId3"/>
+    <sheet name="Form-Envolvente-4" sheetId="8" r:id="rId4"/>
+    <sheet name="Form-Condensadores" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId6"/>
+    <sheet name="Form-Solar" sheetId="4" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="ListaResistenciaCamaraAire">'Form-Envolvente-1'!$Q$3:$Q$18</definedName>
-    <definedName name="ListaTipoCarpinteriaMarcoVentanaVerical" localSheetId="3">'[1]Form-Envolvente-1'!$O$3:$O$10</definedName>
+    <definedName name="ListaTipoCarpinteriaMarcoVentanaVerical" localSheetId="6">'[1]Form-Envolvente-1'!$O$3:$O$10</definedName>
     <definedName name="ListaTipoCarpinteriaMarcoVentanaVerical">'Form-Envolvente-1'!$O$3:$O$10</definedName>
     <definedName name="ListaTipoMaterialesVarios">'Form-Envolvente-1'!$O$13:$O$132</definedName>
-    <definedName name="ListaTipoVidrioPoli" localSheetId="3">'[1]Form-Envolvente-1'!$M$3:$M$26</definedName>
+    <definedName name="ListaTipoVidrioPoli" localSheetId="6">'[1]Form-Envolvente-1'!$M$3:$M$26</definedName>
     <definedName name="ListaTipoVidrioPoli">'Form-Envolvente-1'!$M$3:$M$26</definedName>
     <definedName name="TIPO_DE_CARPINTERÍA_DE_PUERTA_O_MARCO__CON_AMBIENTE_EXTERIOR">'[2]1.Térmico'!$V$26:$V$39</definedName>
     <definedName name="TIPO_DE_CARPINTERÍA_DEL_MARCO__DE_VENTANA__VERTICAL">'[2]1.Térmico'!$S$26:$S$33</definedName>
@@ -36,16 +39,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -86,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="258">
   <si>
     <t xml:space="preserve">1.1) </t>
   </si>
@@ -782,6 +775,112 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>Vanos: Ventanas, lucernarios, claraboyas y otros vanos traslúcidos o transparentes sobre techo</t>
+  </si>
+  <si>
+    <t>TIPO DE CARPINTERÍA DE PUERTA O MARCO (CON AMBIENTE EXTERIOR)</t>
+  </si>
+  <si>
+    <t>escoger tipo de carpintería de puerta</t>
+  </si>
+  <si>
+    <t>Madera (hoja de vidrio simple en &lt; 30% de la superficie de la hoja de madera maciza)</t>
+  </si>
+  <si>
+    <t>Madera (hoja de vidrio simple en 30% a 60% de la superficie de la hoja de madera maciza)</t>
+  </si>
+  <si>
+    <t>Madera (hoja de vidrio doble)</t>
+  </si>
+  <si>
+    <t>Metálico (hoja de metal)</t>
+  </si>
+  <si>
+    <t>Metálico (puerta cortafuego de una hoja (cualquier espesor)</t>
+  </si>
+  <si>
+    <t>Metálico (puerta cortafuego de dos hojas, espesor: 83 mm)</t>
+  </si>
+  <si>
+    <t>Metálico (hoja de vidrio simple)</t>
+  </si>
+  <si>
+    <t>Metálico (hoja de vidrio doble, con cámara de aire de 6 mm en &lt; 30% de su superficie)</t>
+  </si>
+  <si>
+    <t>Metálico (hoja de vidrio doble, con cámara de aire de 6 mm en 30% a 70% de su superficie)</t>
+  </si>
+  <si>
+    <t>Metálico (hoja de vidrio doble, al 100%)</t>
+  </si>
+  <si>
+    <t>Hoja de vidrio (sin carpintería)</t>
+  </si>
+  <si>
+    <t>Mampostería (Bloque de arcilla - Ladrillo corriente)</t>
+  </si>
+  <si>
+    <r>
+      <t>Material aislante (Lana mineral</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2) </t>
+  </si>
+  <si>
+    <t>Vanos: Compuertas sobre techo</t>
+  </si>
+  <si>
+    <t>Tipo de Compuerta</t>
+  </si>
+  <si>
+    <t>Techos Tipo 3B(3) (azoteas y azoteas ajardinadas) y Techos Tipo 3C (pisos enterrados)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3) </t>
+  </si>
+  <si>
+    <t>Resistencias Superficiales</t>
+  </si>
+  <si>
+    <t>RST/RCA 
+(m2 °C/W)</t>
+  </si>
+  <si>
+    <t>Techo (azotea) sin cámara de aire</t>
+  </si>
+  <si>
+    <t>Techo (azotea) con cámara de aire</t>
+  </si>
+  <si>
+    <t>Composición</t>
+  </si>
+  <si>
+    <t>Puente Térmico: Columnas Tipo N° 1</t>
+  </si>
+  <si>
+    <t>Puente Térmico: Columnas Tipo N° 2</t>
+  </si>
+  <si>
+    <t>Techos Tipo 3A (inclinados menos de 60° con la horizontal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4) </t>
+  </si>
 </sst>
 </file>
 
@@ -790,7 +889,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,8 +1013,56 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,6 +1141,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE26B0A"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -1288,7 +1489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1429,6 +1630,77 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1436,6 +1708,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FF00CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1452,6 +1730,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Form-Envolvente-1"/>
+      <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1600,6 +1879,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2038,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DABA7AB-2E09-4285-B659-D9F0D56E558C}">
   <dimension ref="A2:Q132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A22" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3232,6 +3512,2180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F6DADF-A6E3-4FC6-8C9A-3A226B339427}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7B915D-F4AF-4501-AD9D-A15696411677}">
+  <dimension ref="A2:P150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="85.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="L2" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="58"/>
+      <c r="P2" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="L3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="58"/>
+      <c r="N3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="58"/>
+      <c r="P3" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="L4" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="58"/>
+      <c r="N4" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="58"/>
+      <c r="P4" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="L5" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="58"/>
+      <c r="N5" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="58"/>
+      <c r="P5" s="62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="L6" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="58"/>
+      <c r="N6" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="58"/>
+      <c r="P6" s="62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="L7" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="58"/>
+      <c r="N7" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="58"/>
+      <c r="P7" s="62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="L8" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="58"/>
+      <c r="N8" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="58"/>
+      <c r="P8" s="62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="L9" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="58"/>
+      <c r="N9" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="58"/>
+      <c r="P9" s="62" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="L10" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="58"/>
+      <c r="N10" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="58"/>
+      <c r="P10" s="62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <f>(1.2*4)*10</f>
+        <v>48</v>
+      </c>
+      <c r="E11" s="3">
+        <f>C11*D11</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="L11" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="0">(1.2*4)*10</f>
+        <v>48</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ref="E12:E13" si="1">C12*D12</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="L12" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="L13" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="L14" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="L15" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="L16" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="L17" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+    </row>
+    <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="L18" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="L19" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="L20" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+    </row>
+    <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="L21" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="L22" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="L23" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="L24" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+    </row>
+    <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="L25" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="L26" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+    </row>
+    <row r="27" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+    </row>
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="74">
+        <v>0.11</v>
+      </c>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="74">
+        <v>0.06</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="L31" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" s="58"/>
+      <c r="N31" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+    </row>
+    <row r="32" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="L32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32" s="58"/>
+      <c r="N32" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="L33" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="58"/>
+      <c r="N33" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D34" s="50">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="L34" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" s="58"/>
+      <c r="N34" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D35" s="51"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="L35" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="M35" s="58"/>
+      <c r="N35" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="L36" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="M36" s="58"/>
+      <c r="N36" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="L37" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="M37" s="58"/>
+      <c r="N37" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+    </row>
+    <row r="38" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="L38" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="M38" s="58"/>
+      <c r="N38" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+    </row>
+    <row r="39" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="L39" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="M39" s="58"/>
+      <c r="N39" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="M40" s="58"/>
+      <c r="N40" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="L41" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="M41" s="58"/>
+      <c r="N41" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+    </row>
+    <row r="42" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="L42" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="M42" s="58"/>
+      <c r="N42" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43" s="58"/>
+      <c r="N43" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D44" s="50">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+      <c r="L44" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="M44" s="58"/>
+      <c r="N44" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D45" s="51"/>
+      <c r="L45" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="M45" s="58"/>
+      <c r="N45" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D46" s="52"/>
+      <c r="L46" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="M46" s="58"/>
+      <c r="N46" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L47" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="M47" s="58"/>
+      <c r="N47" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="O47" s="58"/>
+      <c r="P47" s="58"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L48" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+    </row>
+    <row r="49" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="A49" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="L49" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="L50" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="58"/>
+    </row>
+    <row r="51" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="L51" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="58"/>
+    </row>
+    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="L52" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="58"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="74">
+        <v>0.11</v>
+      </c>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="L53" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="74">
+        <v>0.06</v>
+      </c>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="L54" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="M54" s="58"/>
+      <c r="N54" s="58"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="58"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="72"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="L55" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="58"/>
+    </row>
+    <row r="56" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="L56" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="M56" s="58"/>
+      <c r="N56" s="58"/>
+      <c r="O56" s="58"/>
+      <c r="P56" s="58"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="L57" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="M57" s="58"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="58"/>
+      <c r="P57" s="58"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="77">
+        <v>0.44</v>
+      </c>
+      <c r="D58" s="50">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="L58" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="58"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="77">
+        <v>0.44</v>
+      </c>
+      <c r="D59" s="51"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="L59" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
+      <c r="P59" s="58"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="77">
+        <v>0.44</v>
+      </c>
+      <c r="D60" s="52"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="L60" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="58"/>
+      <c r="P60" s="58"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="72"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="L61" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="M61" s="58"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="58"/>
+      <c r="P61" s="58"/>
+    </row>
+    <row r="62" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B62" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="L62" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="M62" s="58"/>
+      <c r="N62" s="58"/>
+      <c r="O62" s="58"/>
+      <c r="P62" s="58"/>
+    </row>
+    <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="L63" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="M63" s="58"/>
+      <c r="N63" s="58"/>
+      <c r="O63" s="58"/>
+      <c r="P63" s="58"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="L64" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="M64" s="58"/>
+      <c r="N64" s="58"/>
+      <c r="O64" s="58"/>
+      <c r="P64" s="58"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="L65" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="58"/>
+      <c r="P65" s="58"/>
+    </row>
+    <row r="66" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="L66" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="M66" s="58"/>
+      <c r="N66" s="58"/>
+      <c r="O66" s="58"/>
+      <c r="P66" s="58"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="M67" s="58"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="58"/>
+      <c r="P67" s="58"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="77">
+        <v>0.44</v>
+      </c>
+      <c r="D68" s="50">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+      <c r="L68" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="M68" s="58"/>
+      <c r="N68" s="58"/>
+      <c r="O68" s="58"/>
+      <c r="P68" s="58"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="77">
+        <v>0.44</v>
+      </c>
+      <c r="D69" s="51"/>
+      <c r="L69" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M69" s="58"/>
+      <c r="N69" s="58"/>
+      <c r="O69" s="58"/>
+      <c r="P69" s="58"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="77">
+        <v>0.44</v>
+      </c>
+      <c r="D70" s="52"/>
+      <c r="L70" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="M70" s="58"/>
+      <c r="N70" s="58"/>
+      <c r="O70" s="58"/>
+      <c r="P70" s="58"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="L71" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="M71" s="58"/>
+      <c r="N71" s="58"/>
+      <c r="O71" s="58"/>
+      <c r="P71" s="58"/>
+    </row>
+    <row r="72" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B72" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="L72" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M72" s="58"/>
+      <c r="N72" s="58"/>
+      <c r="O72" s="58"/>
+      <c r="P72" s="58"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="M73" s="58"/>
+      <c r="N73" s="58"/>
+      <c r="O73" s="58"/>
+      <c r="P73" s="58"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="77">
+        <v>0.44</v>
+      </c>
+      <c r="D74" s="50">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+      <c r="L74" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="M74" s="58"/>
+      <c r="N74" s="58"/>
+      <c r="O74" s="58"/>
+      <c r="P74" s="58"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="77">
+        <v>0.44</v>
+      </c>
+      <c r="D75" s="51"/>
+      <c r="L75" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="M75" s="58"/>
+      <c r="N75" s="58"/>
+      <c r="O75" s="58"/>
+      <c r="P75" s="58"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="77">
+        <v>0.44</v>
+      </c>
+      <c r="D76" s="52"/>
+      <c r="L76" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="M76" s="58"/>
+      <c r="N76" s="58"/>
+      <c r="O76" s="58"/>
+      <c r="P76" s="58"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="L77" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="M77" s="58"/>
+      <c r="N77" s="58"/>
+      <c r="O77" s="58"/>
+      <c r="P77" s="58"/>
+    </row>
+    <row r="78" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B78" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="L78" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="M78" s="58"/>
+      <c r="N78" s="58"/>
+      <c r="O78" s="58"/>
+      <c r="P78" s="58"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="M79" s="58"/>
+      <c r="N79" s="58"/>
+      <c r="O79" s="58"/>
+      <c r="P79" s="58"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="77">
+        <v>0.44</v>
+      </c>
+      <c r="D80" s="50">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+      <c r="L80" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="M80" s="58"/>
+      <c r="N80" s="58"/>
+      <c r="O80" s="58"/>
+      <c r="P80" s="58"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="77">
+        <v>0.44</v>
+      </c>
+      <c r="D81" s="51"/>
+      <c r="L81" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="M81" s="58"/>
+      <c r="N81" s="58"/>
+      <c r="O81" s="58"/>
+      <c r="P81" s="58"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D82" s="52"/>
+      <c r="L82" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="M82" s="58"/>
+      <c r="N82" s="58"/>
+      <c r="O82" s="58"/>
+      <c r="P82" s="58"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L83" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="M83" s="58"/>
+      <c r="N83" s="58"/>
+      <c r="O83" s="58"/>
+      <c r="P83" s="58"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L84" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="M84" s="58"/>
+      <c r="N84" s="58"/>
+      <c r="O84" s="58"/>
+      <c r="P84" s="58"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L85" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="M85" s="58"/>
+      <c r="N85" s="58"/>
+      <c r="O85" s="58"/>
+      <c r="P85" s="58"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L86" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="M86" s="58"/>
+      <c r="N86" s="58"/>
+      <c r="O86" s="58"/>
+      <c r="P86" s="58"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L87" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="M87" s="58"/>
+      <c r="N87" s="58"/>
+      <c r="O87" s="58"/>
+      <c r="P87" s="58"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L88" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="M88" s="58"/>
+      <c r="N88" s="58"/>
+      <c r="O88" s="58"/>
+      <c r="P88" s="58"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L89" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="M89" s="58"/>
+      <c r="N89" s="58"/>
+      <c r="O89" s="58"/>
+      <c r="P89" s="58"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L90" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="M90" s="58"/>
+      <c r="N90" s="58"/>
+      <c r="O90" s="58"/>
+      <c r="P90" s="58"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L91" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="M91" s="58"/>
+      <c r="N91" s="58"/>
+      <c r="O91" s="58"/>
+      <c r="P91" s="58"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L92" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="M92" s="58"/>
+      <c r="N92" s="58"/>
+      <c r="O92" s="58"/>
+      <c r="P92" s="58"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L93" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="M93" s="58"/>
+      <c r="N93" s="58"/>
+      <c r="O93" s="58"/>
+      <c r="P93" s="58"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L94" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="M94" s="58"/>
+      <c r="N94" s="58"/>
+      <c r="O94" s="58"/>
+      <c r="P94" s="58"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L95" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="M95" s="58"/>
+      <c r="N95" s="58"/>
+      <c r="O95" s="58"/>
+      <c r="P95" s="58"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L96" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="M96" s="58"/>
+      <c r="N96" s="58"/>
+      <c r="O96" s="58"/>
+      <c r="P96" s="58"/>
+    </row>
+    <row r="97" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L97" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="M97" s="58"/>
+      <c r="N97" s="58"/>
+      <c r="O97" s="58"/>
+      <c r="P97" s="58"/>
+    </row>
+    <row r="98" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L98" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="M98" s="58"/>
+      <c r="N98" s="58"/>
+      <c r="O98" s="58"/>
+      <c r="P98" s="58"/>
+    </row>
+    <row r="99" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L99" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="M99" s="58"/>
+      <c r="N99" s="58"/>
+      <c r="O99" s="58"/>
+      <c r="P99" s="58"/>
+    </row>
+    <row r="100" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L100" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="M100" s="58"/>
+      <c r="N100" s="58"/>
+      <c r="O100" s="58"/>
+      <c r="P100" s="58"/>
+    </row>
+    <row r="101" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L101" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="M101" s="58"/>
+      <c r="N101" s="58"/>
+      <c r="O101" s="58"/>
+      <c r="P101" s="58"/>
+    </row>
+    <row r="102" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L102" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="M102" s="58"/>
+      <c r="N102" s="58"/>
+      <c r="O102" s="58"/>
+      <c r="P102" s="58"/>
+    </row>
+    <row r="103" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L103" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="M103" s="58"/>
+      <c r="N103" s="58"/>
+      <c r="O103" s="58"/>
+      <c r="P103" s="58"/>
+    </row>
+    <row r="104" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L104" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="M104" s="58"/>
+      <c r="N104" s="58"/>
+      <c r="O104" s="58"/>
+      <c r="P104" s="58"/>
+    </row>
+    <row r="105" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L105" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="M105" s="58"/>
+      <c r="N105" s="58"/>
+      <c r="O105" s="58"/>
+      <c r="P105" s="58"/>
+    </row>
+    <row r="106" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L106" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="M106" s="58"/>
+      <c r="N106" s="58"/>
+      <c r="O106" s="58"/>
+      <c r="P106" s="58"/>
+    </row>
+    <row r="107" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L107" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="M107" s="58"/>
+      <c r="N107" s="58"/>
+      <c r="O107" s="58"/>
+      <c r="P107" s="58"/>
+    </row>
+    <row r="108" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L108" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="M108" s="58"/>
+      <c r="N108" s="58"/>
+      <c r="O108" s="58"/>
+      <c r="P108" s="58"/>
+    </row>
+    <row r="109" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L109" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="M109" s="58"/>
+      <c r="N109" s="58"/>
+      <c r="O109" s="58"/>
+      <c r="P109" s="58"/>
+    </row>
+    <row r="110" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L110" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="M110" s="58"/>
+      <c r="N110" s="58"/>
+      <c r="O110" s="58"/>
+      <c r="P110" s="58"/>
+    </row>
+    <row r="111" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L111" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="M111" s="58"/>
+      <c r="N111" s="58"/>
+      <c r="O111" s="58"/>
+      <c r="P111" s="58"/>
+    </row>
+    <row r="112" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L112" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="M112" s="58"/>
+      <c r="N112" s="58"/>
+      <c r="O112" s="58"/>
+      <c r="P112" s="58"/>
+    </row>
+    <row r="113" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L113" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M113" s="58"/>
+      <c r="N113" s="58"/>
+      <c r="O113" s="58"/>
+      <c r="P113" s="58"/>
+    </row>
+    <row r="114" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L114" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="M114" s="58"/>
+      <c r="N114" s="58"/>
+      <c r="O114" s="58"/>
+      <c r="P114" s="58"/>
+    </row>
+    <row r="115" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L115" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="M115" s="58"/>
+      <c r="N115" s="58"/>
+      <c r="O115" s="58"/>
+      <c r="P115" s="58"/>
+    </row>
+    <row r="116" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L116" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="M116" s="58"/>
+      <c r="N116" s="58"/>
+      <c r="O116" s="58"/>
+      <c r="P116" s="58"/>
+    </row>
+    <row r="117" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L117" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="M117" s="58"/>
+      <c r="N117" s="58"/>
+      <c r="O117" s="58"/>
+      <c r="P117" s="58"/>
+    </row>
+    <row r="118" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L118" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="M118" s="58"/>
+      <c r="N118" s="58"/>
+      <c r="O118" s="58"/>
+      <c r="P118" s="58"/>
+    </row>
+    <row r="119" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L119" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="M119" s="58"/>
+      <c r="N119" s="58"/>
+      <c r="O119" s="58"/>
+      <c r="P119" s="58"/>
+    </row>
+    <row r="120" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L120" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="M120" s="58"/>
+      <c r="N120" s="58"/>
+      <c r="O120" s="58"/>
+      <c r="P120" s="58"/>
+    </row>
+    <row r="121" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L121" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="M121" s="58"/>
+      <c r="N121" s="58"/>
+      <c r="O121" s="58"/>
+      <c r="P121" s="58"/>
+    </row>
+    <row r="122" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L122" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="M122" s="58"/>
+      <c r="N122" s="58"/>
+      <c r="O122" s="58"/>
+      <c r="P122" s="58"/>
+    </row>
+    <row r="123" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L123" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="M123" s="58"/>
+      <c r="N123" s="58"/>
+      <c r="O123" s="58"/>
+      <c r="P123" s="58"/>
+    </row>
+    <row r="124" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L124" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="M124" s="58"/>
+      <c r="N124" s="58"/>
+      <c r="O124" s="58"/>
+      <c r="P124" s="58"/>
+    </row>
+    <row r="125" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L125" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="M125" s="58"/>
+      <c r="N125" s="58"/>
+      <c r="O125" s="58"/>
+      <c r="P125" s="58"/>
+    </row>
+    <row r="126" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L126" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="M126" s="58"/>
+      <c r="N126" s="58"/>
+      <c r="O126" s="58"/>
+      <c r="P126" s="58"/>
+    </row>
+    <row r="127" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L127" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="M127" s="58"/>
+      <c r="N127" s="58"/>
+      <c r="O127" s="58"/>
+      <c r="P127" s="58"/>
+    </row>
+    <row r="128" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L128" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="M128" s="58"/>
+      <c r="N128" s="58"/>
+      <c r="O128" s="58"/>
+      <c r="P128" s="58"/>
+    </row>
+    <row r="129" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L129" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="M129" s="58"/>
+      <c r="N129" s="58"/>
+      <c r="O129" s="58"/>
+      <c r="P129" s="58"/>
+    </row>
+    <row r="130" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L130" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="M130" s="58"/>
+      <c r="N130" s="58"/>
+      <c r="O130" s="58"/>
+      <c r="P130" s="58"/>
+    </row>
+    <row r="131" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L131" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="M131" s="58"/>
+      <c r="N131" s="58"/>
+      <c r="O131" s="58"/>
+      <c r="P131" s="58"/>
+    </row>
+    <row r="132" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L132" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="M132" s="58"/>
+      <c r="N132" s="58"/>
+      <c r="O132" s="58"/>
+      <c r="P132" s="58"/>
+    </row>
+    <row r="133" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L133" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="M133" s="58"/>
+      <c r="N133" s="58"/>
+      <c r="O133" s="58"/>
+      <c r="P133" s="58"/>
+    </row>
+    <row r="134" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L134" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="M134" s="58"/>
+      <c r="N134" s="58"/>
+      <c r="O134" s="58"/>
+      <c r="P134" s="58"/>
+    </row>
+    <row r="135" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L135" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="M135" s="58"/>
+      <c r="N135" s="58"/>
+      <c r="O135" s="58"/>
+      <c r="P135" s="58"/>
+    </row>
+    <row r="136" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L136" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="M136" s="58"/>
+      <c r="N136" s="58"/>
+      <c r="O136" s="58"/>
+      <c r="P136" s="58"/>
+    </row>
+    <row r="137" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L137" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="M137" s="58"/>
+      <c r="N137" s="58"/>
+      <c r="O137" s="58"/>
+      <c r="P137" s="58"/>
+    </row>
+    <row r="138" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L138" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="M138" s="58"/>
+      <c r="N138" s="58"/>
+      <c r="O138" s="58"/>
+      <c r="P138" s="58"/>
+    </row>
+    <row r="139" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L139" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="M139" s="58"/>
+      <c r="N139" s="58"/>
+      <c r="O139" s="58"/>
+      <c r="P139" s="58"/>
+    </row>
+    <row r="140" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L140" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="M140" s="58"/>
+      <c r="N140" s="58"/>
+      <c r="O140" s="58"/>
+      <c r="P140" s="58"/>
+    </row>
+    <row r="141" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L141" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="M141" s="58"/>
+      <c r="N141" s="58"/>
+      <c r="O141" s="58"/>
+      <c r="P141" s="58"/>
+    </row>
+    <row r="142" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L142" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="M142" s="58"/>
+      <c r="N142" s="58"/>
+      <c r="O142" s="58"/>
+      <c r="P142" s="58"/>
+    </row>
+    <row r="143" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L143" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="M143" s="58"/>
+      <c r="N143" s="58"/>
+      <c r="O143" s="58"/>
+      <c r="P143" s="58"/>
+    </row>
+    <row r="144" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L144" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="M144" s="58"/>
+      <c r="N144" s="58"/>
+      <c r="O144" s="58"/>
+      <c r="P144" s="58"/>
+    </row>
+    <row r="145" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L145" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="M145" s="58"/>
+      <c r="N145" s="58"/>
+      <c r="O145" s="58"/>
+      <c r="P145" s="58"/>
+    </row>
+    <row r="146" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L146" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="M146" s="58"/>
+      <c r="N146" s="58"/>
+      <c r="O146" s="58"/>
+      <c r="P146" s="58"/>
+    </row>
+    <row r="147" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L147" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="M147" s="58"/>
+      <c r="N147" s="58"/>
+      <c r="O147" s="58"/>
+      <c r="P147" s="58"/>
+    </row>
+    <row r="148" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L148" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="M148" s="58"/>
+      <c r="N148" s="58"/>
+      <c r="O148" s="58"/>
+      <c r="P148" s="58"/>
+    </row>
+    <row r="149" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L149" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="M149" s="58"/>
+      <c r="N149" s="58"/>
+      <c r="O149" s="58"/>
+      <c r="P149" s="58"/>
+    </row>
+    <row r="150" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L150" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M150" s="58"/>
+      <c r="N150" s="58"/>
+      <c r="O150" s="58"/>
+      <c r="P150" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D34:D36"/>
+  </mergeCells>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B13" xr:uid="{5FEB7208-9EC2-4939-A7BD-9E91958F93F6}">
+      <formula1>ListaTipoCarpinteriaMarcoVentanaVerical</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{53FCF665-9F0D-412C-8F3F-800FD426CDE3}">
+      <formula1>ListaTipoVidrioPoli</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{AC6D5DB7-2EE4-42F9-83E1-1FEEB3DC80D3}">
+      <formula1>TIPO_DE_CARPINTERÍA_DEL_MARCO__DE_VENTANA__VERTICAL</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{486D5F31-C1C3-4912-A6ED-02C2E4D113CD}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B22" xr:uid="{1E0C1029-CDF0-4A9C-AEC3-8B7B1BDEC845}">
+      <formula1>$P$3:$P$16</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35:B36 B45:B46 B59:B60 B69:B70 B75:B76 B81:B82" xr:uid="{6EF2AC55-C7FE-4D15-B407-A91643C74DA7}">
+      <formula1>ListaTipoMaterialesVarios</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34 B44 B58 B68 B74 B80" xr:uid="{C32974EB-1068-48B3-9F9A-27DDC2FBA4F3}">
+      <formula1>$L$32:$L$150</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41 B65" xr:uid="{369EF2F5-B47E-4843-ADFE-7BF04F15575E}">
+      <formula1>ListaResistenciaCamaraAire</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D624E2-3D24-45F0-8014-12546FA36896}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CF74AF-C166-49CD-9383-F6A23EB42D93}">
   <dimension ref="B5:L24"/>
   <sheetViews>
@@ -3410,7 +5864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3C697E-ABEF-4667-98F4-0971D011D4CA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3422,7 +5876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82A00E6-1386-42F6-95A6-2EA5D812D012}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B5:R33"/>
@@ -3495,6 +5949,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BC8D1A6D9755BA4DACDC023AEE321D58" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8407c33dbc57c22b02890f9ab05f88f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cec9201-ec77-4532-add3-9cf0afa67a3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="414e73d62fa2934c35f1272b2dae311a" ns3:_="">
     <xsd:import namespace="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
@@ -3640,12 +6100,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3656,6 +6110,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742AAA9-DDA3-4D79-8010-354B400D5BEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB979463-6A6C-4761-86FC-11C8EC0FC4C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3673,22 +6143,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742AAA9-DDA3-4D79-8010-354B400D5BEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
   <ds:schemaRefs>

--- a/trydoc.xlsx
+++ b/trydoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpringProjects\spring-arquitectura-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6C251F-331E-49D2-8C33-54FAA0424E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A7C733-48C7-48C8-B361-B4E9B0A1BBAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3375" yWindow="4950" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
+    <workbookView xWindow="-10245" yWindow="3435" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Form-Envolvente-1" sheetId="1" r:id="rId1"/>
@@ -1606,30 +1606,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1701,6 +1677,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2339,14 +2339,14 @@
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2719,14 +2719,14 @@
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="1"/>
       <c r="M25" s="14" t="s">
         <v>37</v>
@@ -2838,7 +2838,7 @@
       <c r="C37" s="48">
         <v>0.44</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="77">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -2853,7 +2853,7 @@
       <c r="C38" s="48">
         <v>0.44</v>
       </c>
-      <c r="D38" s="51"/>
+      <c r="D38" s="78"/>
       <c r="O38" s="43" t="s">
         <v>111</v>
       </c>
@@ -2865,7 +2865,7 @@
       <c r="C39" s="48">
         <v>0.44</v>
       </c>
-      <c r="D39" s="52"/>
+      <c r="D39" s="79"/>
       <c r="O39" s="43" t="s">
         <v>112</v>
       </c>
@@ -2916,7 +2916,7 @@
       <c r="C45" s="49">
         <v>0.4</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="77">
         <v>24.5</v>
       </c>
       <c r="O45" s="43" t="s">
@@ -2930,7 +2930,7 @@
       <c r="C46" s="49">
         <v>0.3</v>
       </c>
-      <c r="D46" s="51"/>
+      <c r="D46" s="78"/>
       <c r="O46" s="43" t="s">
         <v>118</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="C47" s="49">
         <v>0.3</v>
       </c>
-      <c r="D47" s="52"/>
+      <c r="D47" s="79"/>
       <c r="O47" s="43" t="s">
         <v>119</v>
       </c>
@@ -3026,7 +3026,7 @@
       <c r="C57" s="45">
         <v>0.44</v>
       </c>
-      <c r="D57" s="50">
+      <c r="D57" s="77">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="C58" s="45">
         <v>0.44</v>
       </c>
-      <c r="D58" s="51"/>
+      <c r="D58" s="78"/>
       <c r="O58" s="43" t="s">
         <v>130</v>
       </c>
@@ -3053,7 +3053,7 @@
       <c r="C59" s="45">
         <v>0.44</v>
       </c>
-      <c r="D59" s="52"/>
+      <c r="D59" s="79"/>
       <c r="O59" s="43" t="s">
         <v>131</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="C69" s="45">
         <v>0.44</v>
       </c>
-      <c r="D69" s="50">
+      <c r="D69" s="77">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -3149,7 +3149,7 @@
       <c r="C70" s="45">
         <v>0.44</v>
       </c>
-      <c r="D70" s="51"/>
+      <c r="D70" s="78"/>
       <c r="O70" s="43" t="s">
         <v>142</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="C71" s="45">
         <v>0.44</v>
       </c>
-      <c r="D71" s="52"/>
+      <c r="D71" s="79"/>
       <c r="O71" s="43" t="s">
         <v>143</v>
       </c>
@@ -3527,8 +3527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7B915D-F4AF-4501-AD9D-A15696411677}">
   <dimension ref="A2:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3548,67 +3548,67 @@
       <c r="A2" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="L2" s="59" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="L2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59" t="s">
+      <c r="M2" s="50"/>
+      <c r="N2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="59" t="s">
+      <c r="O2" s="50"/>
+      <c r="P2" s="51" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
       <c r="L3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="58"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="58"/>
+      <c r="O3" s="50"/>
       <c r="P3" s="12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="L4" s="60" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="L4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="61" t="s">
+      <c r="M4" s="50"/>
+      <c r="N4" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="62" t="s">
+      <c r="O4" s="50"/>
+      <c r="P4" s="54" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3622,104 +3622,104 @@
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="L5" s="60" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="L5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="58"/>
-      <c r="N5" s="61" t="s">
+      <c r="M5" s="50"/>
+      <c r="N5" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="58"/>
-      <c r="P5" s="62" t="s">
+      <c r="O5" s="50"/>
+      <c r="P5" s="54" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="72" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="3">
         <v>14.4</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="L6" s="60" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="L6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="58"/>
-      <c r="N6" s="61" t="s">
+      <c r="M6" s="50"/>
+      <c r="N6" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="62" t="s">
+      <c r="O6" s="50"/>
+      <c r="P6" s="54" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="72" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="3">
         <v>14.4</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="L7" s="60" t="s">
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="L7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="58"/>
-      <c r="N7" s="61" t="s">
+      <c r="M7" s="50"/>
+      <c r="N7" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="62" t="s">
+      <c r="O7" s="50"/>
+      <c r="P7" s="54" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="L8" s="60" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="L8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="61" t="s">
+      <c r="M8" s="50"/>
+      <c r="N8" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="62" t="s">
+      <c r="O8" s="50"/>
+      <c r="P8" s="54" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="L9" s="60" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="L9" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="58"/>
-      <c r="N9" s="61" t="s">
+      <c r="M9" s="50"/>
+      <c r="N9" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="62" t="s">
+      <c r="O9" s="50"/>
+      <c r="P9" s="54" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3736,22 +3736,22 @@
       <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="L10" s="60" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="L10" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="58"/>
-      <c r="N10" s="61" t="s">
+      <c r="M10" s="50"/>
+      <c r="N10" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="58"/>
-      <c r="P10" s="62" t="s">
+      <c r="O10" s="50"/>
+      <c r="P10" s="54" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="73" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="6">
@@ -3765,20 +3765,20 @@
         <f>C11*D11</f>
         <v>1.6800000000000002</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="L11" s="60" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="L11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="62" t="s">
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="54" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="73" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="6">
@@ -3792,20 +3792,20 @@
         <f t="shared" ref="E12:E13" si="1">C12*D12</f>
         <v>1.6800000000000002</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="L12" s="60" t="s">
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="L12" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="62" t="s">
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="54" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="73" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="6">
@@ -3819,49 +3819,49 @@
         <f t="shared" si="1"/>
         <v>1.6800000000000002</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="L13" s="63" t="s">
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="L13" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="64" t="s">
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="56" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="L14" s="63" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="L14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="64" t="s">
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="56" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="L15" s="63" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="L15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="64" t="s">
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="56" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3869,55 +3869,55 @@
       <c r="A16" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="L16" s="63" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="L16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="62" t="s">
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="54" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="L17" s="63" t="s">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="L17" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
     </row>
     <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="L18" s="63" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="L18" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -3929,153 +3929,153 @@
       <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="L19" s="63" t="s">
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="L19" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="3">
         <v>14.4</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="L20" s="63" t="s">
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="L20" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="3">
         <v>14.4</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="L21" s="63" t="s">
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="L21" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="3">
         <v>14.4</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="L22" s="63" t="s">
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="L22" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="L23" s="63" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="L23" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="L24" s="63" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="L24" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="L25" s="63" t="s">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="L25" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="L26" s="63" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="L26" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
     </row>
     <row r="27" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
@@ -4084,85 +4084,85 @@
       <c r="C28" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="66">
         <v>0.11</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="74">
+      <c r="C30" s="66">
         <v>0.06</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="L31" s="59" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="L31" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="M31" s="58"/>
-      <c r="N31" s="65" t="s">
+      <c r="M31" s="50"/>
+      <c r="N31" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
     </row>
     <row r="32" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
       <c r="L32" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="M32" s="58"/>
+      <c r="M32" s="50"/>
       <c r="N32" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="38" t="s">
@@ -4174,179 +4174,179 @@
       <c r="D33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="L33" s="66" t="s">
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="L33" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="M33" s="58"/>
-      <c r="N33" s="67" t="s">
+      <c r="M33" s="50"/>
+      <c r="N33" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="75" t="s">
         <v>90</v>
       </c>
       <c r="C34" s="48">
         <v>0.44</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="77">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="L34" s="66" t="s">
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="L34" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="M34" s="58"/>
-      <c r="N34" s="67" t="s">
+      <c r="M34" s="50"/>
+      <c r="N34" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="75" t="s">
         <v>88</v>
       </c>
       <c r="C35" s="48">
         <v>0.44</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="L35" s="66" t="s">
+      <c r="D35" s="78"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="L35" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="M35" s="58"/>
-      <c r="N35" s="67" t="s">
+      <c r="M35" s="50"/>
+      <c r="N35" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="75" t="s">
         <v>92</v>
       </c>
       <c r="C36" s="48">
         <v>0.44</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="L36" s="66" t="s">
+      <c r="D36" s="79"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="L36" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="M36" s="58"/>
-      <c r="N36" s="67" t="s">
+      <c r="M36" s="50"/>
+      <c r="N36" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="L37" s="66" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="L37" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="58"/>
-      <c r="N37" s="67" t="s">
+      <c r="M37" s="50"/>
+      <c r="N37" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
     </row>
     <row r="38" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="L38" s="66" t="s">
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="L38" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="M38" s="58"/>
-      <c r="N38" s="67" t="s">
+      <c r="M38" s="50"/>
+      <c r="N38" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
     </row>
     <row r="39" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="L39" s="66" t="s">
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="L39" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="M39" s="58"/>
-      <c r="N39" s="67" t="s">
+      <c r="M39" s="50"/>
+      <c r="N39" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="L40" s="66" t="s">
+      <c r="L40" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="M40" s="58"/>
-      <c r="N40" s="67" t="s">
+      <c r="M40" s="50"/>
+      <c r="N40" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="L41" s="68" t="s">
+      <c r="L41" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="M41" s="58"/>
-      <c r="N41" s="67" t="s">
+      <c r="M41" s="50"/>
+      <c r="N41" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
     </row>
     <row r="42" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="L42" s="66" t="s">
+      <c r="L42" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="M42" s="58"/>
-      <c r="N42" s="67" t="s">
+      <c r="M42" s="50"/>
+      <c r="N42" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="38" t="s">
@@ -4358,144 +4358,144 @@
       <c r="D43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L43" s="68" t="s">
+      <c r="L43" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="M43" s="58"/>
-      <c r="N43" s="67" t="s">
+      <c r="M43" s="50"/>
+      <c r="N43" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="75" t="s">
         <v>90</v>
       </c>
       <c r="C44" s="48">
         <v>0.44</v>
       </c>
-      <c r="D44" s="50">
+      <c r="D44" s="77">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
-      <c r="L44" s="66" t="s">
+      <c r="L44" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="M44" s="58"/>
-      <c r="N44" s="67" t="s">
+      <c r="M44" s="50"/>
+      <c r="N44" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="75" t="s">
         <v>88</v>
       </c>
       <c r="C45" s="48">
         <v>0.44</v>
       </c>
-      <c r="D45" s="51"/>
-      <c r="L45" s="68" t="s">
+      <c r="D45" s="78"/>
+      <c r="L45" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="M45" s="58"/>
-      <c r="N45" s="67" t="s">
+      <c r="M45" s="50"/>
+      <c r="N45" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="75" t="s">
         <v>92</v>
       </c>
       <c r="C46" s="48">
         <v>0.44</v>
       </c>
-      <c r="D46" s="52"/>
-      <c r="L46" s="66" t="s">
+      <c r="D46" s="79"/>
+      <c r="L46" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="M46" s="58"/>
-      <c r="N46" s="67" t="s">
+      <c r="M46" s="50"/>
+      <c r="N46" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L47" s="66" t="s">
+      <c r="L47" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="M47" s="58"/>
-      <c r="N47" s="67" t="s">
+      <c r="M47" s="50"/>
+      <c r="N47" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="O47" s="58"/>
-      <c r="P47" s="58"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L48" s="66" t="s">
+      <c r="L48" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
     </row>
     <row r="49" spans="1:16" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="80" t="s">
         <v>256</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="L49" s="66" t="s">
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="L49" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="L50" s="66" t="s">
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="L50" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
     </row>
     <row r="51" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="76" t="s">
+      <c r="B51" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="L51" s="66" t="s">
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="L51" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
     </row>
     <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
@@ -4504,87 +4504,87 @@
       <c r="C52" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="L52" s="66" t="s">
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="L52" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="74">
+      <c r="C53" s="66">
         <v>0.11</v>
       </c>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="L53" s="66" t="s">
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="L53" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="73" t="s">
+      <c r="B54" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="74">
+      <c r="C54" s="66">
         <v>0.06</v>
       </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="L54" s="66" t="s">
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="L54" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="M54" s="58"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="58"/>
-      <c r="P54" s="58"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="72"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="L55" s="66" t="s">
+      <c r="B55" s="64"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="L55" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
     </row>
     <row r="56" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="L56" s="66" t="s">
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="L56" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="M56" s="58"/>
-      <c r="N56" s="58"/>
-      <c r="O56" s="58"/>
-      <c r="P56" s="58"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" s="38" t="s">
@@ -4596,167 +4596,167 @@
       <c r="D57" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="L57" s="66" t="s">
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="L57" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="58"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="83" t="s">
+      <c r="B58" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="77">
+      <c r="C58" s="69">
         <v>0.44</v>
       </c>
-      <c r="D58" s="50">
+      <c r="D58" s="77">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="L58" s="66" t="s">
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="L58" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="M58" s="58"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="58"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="83" t="s">
+      <c r="B59" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="77">
+      <c r="C59" s="69">
         <v>0.44</v>
       </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="L59" s="66" t="s">
+      <c r="D59" s="78"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="L59" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="M59" s="58"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="58"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="50"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="83" t="s">
+      <c r="B60" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="77">
+      <c r="C60" s="69">
         <v>0.44</v>
       </c>
-      <c r="D60" s="52"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="L60" s="66" t="s">
+      <c r="D60" s="79"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="L60" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="72"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="L61" s="68" t="s">
+      <c r="B61" s="64"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="L61" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="M61" s="58"/>
-      <c r="N61" s="58"/>
-      <c r="O61" s="58"/>
-      <c r="P61" s="58"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="50"/>
     </row>
     <row r="62" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B62" s="76" t="s">
+      <c r="B62" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="L62" s="68" t="s">
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="L62" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="M62" s="58"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="58"/>
-      <c r="P62" s="58"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="50"/>
     </row>
     <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="75" t="s">
+      <c r="B63" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="L63" s="66" t="s">
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="L63" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="M63" s="58"/>
-      <c r="N63" s="58"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="58"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="50"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="L64" s="66" t="s">
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="L64" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="M64" s="58"/>
-      <c r="N64" s="58"/>
-      <c r="O64" s="58"/>
-      <c r="P64" s="58"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="50"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B65" s="84" t="s">
+      <c r="B65" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="L65" s="66" t="s">
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="L65" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="58"/>
-      <c r="P65" s="58"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="50"/>
     </row>
     <row r="66" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="75" t="s">
+      <c r="B66" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="L66" s="66" t="s">
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="L66" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="M66" s="58"/>
-      <c r="N66" s="58"/>
-      <c r="O66" s="58"/>
-      <c r="P66" s="58"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="50"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="38" t="s">
@@ -4768,89 +4768,89 @@
       <c r="D67" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L67" s="66" t="s">
+      <c r="L67" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="M67" s="58"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="58"/>
-      <c r="P67" s="58"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="50"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B68" s="83" t="s">
+      <c r="B68" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C68" s="77">
+      <c r="C68" s="69">
         <v>0.44</v>
       </c>
-      <c r="D68" s="50">
+      <c r="D68" s="77">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
-      <c r="L68" s="66" t="s">
+      <c r="L68" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="M68" s="58"/>
-      <c r="N68" s="58"/>
-      <c r="O68" s="58"/>
-      <c r="P68" s="58"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="50"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B69" s="83" t="s">
+      <c r="B69" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="77">
+      <c r="C69" s="69">
         <v>0.44</v>
       </c>
-      <c r="D69" s="51"/>
-      <c r="L69" s="66" t="s">
+      <c r="D69" s="78"/>
+      <c r="L69" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="M69" s="58"/>
-      <c r="N69" s="58"/>
-      <c r="O69" s="58"/>
-      <c r="P69" s="58"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="50"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="83" t="s">
+      <c r="B70" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="77">
+      <c r="C70" s="69">
         <v>0.44</v>
       </c>
-      <c r="D70" s="52"/>
-      <c r="L70" s="66" t="s">
+      <c r="D70" s="79"/>
+      <c r="L70" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="M70" s="58"/>
-      <c r="N70" s="58"/>
-      <c r="O70" s="58"/>
-      <c r="P70" s="58"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="50"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C71" s="79"/>
-      <c r="D71" s="79"/>
-      <c r="L71" s="66" t="s">
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="L71" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="M71" s="58"/>
-      <c r="N71" s="58"/>
-      <c r="O71" s="58"/>
-      <c r="P71" s="58"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="50"/>
     </row>
     <row r="72" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B72" s="76" t="s">
+      <c r="B72" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="78"/>
-      <c r="D72" s="78"/>
-      <c r="L72" s="66" t="s">
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="L72" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="M72" s="58"/>
-      <c r="N72" s="58"/>
-      <c r="O72" s="58"/>
-      <c r="P72" s="58"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="50"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="38" t="s">
@@ -4862,89 +4862,89 @@
       <c r="D73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L73" s="66" t="s">
+      <c r="L73" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="M73" s="58"/>
-      <c r="N73" s="58"/>
-      <c r="O73" s="58"/>
-      <c r="P73" s="58"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="50"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="83" t="s">
+      <c r="B74" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="77">
+      <c r="C74" s="69">
         <v>0.44</v>
       </c>
-      <c r="D74" s="50">
+      <c r="D74" s="77">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
-      <c r="L74" s="66" t="s">
+      <c r="L74" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="M74" s="58"/>
-      <c r="N74" s="58"/>
-      <c r="O74" s="58"/>
-      <c r="P74" s="58"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="50"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B75" s="83" t="s">
+      <c r="B75" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C75" s="77">
+      <c r="C75" s="69">
         <v>0.44</v>
       </c>
-      <c r="D75" s="51"/>
-      <c r="L75" s="66" t="s">
+      <c r="D75" s="78"/>
+      <c r="L75" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="M75" s="58"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="58"/>
-      <c r="P75" s="58"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="50"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="83" t="s">
+      <c r="B76" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="77">
+      <c r="C76" s="69">
         <v>0.44</v>
       </c>
-      <c r="D76" s="52"/>
-      <c r="L76" s="66" t="s">
+      <c r="D76" s="79"/>
+      <c r="L76" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="M76" s="58"/>
-      <c r="N76" s="58"/>
-      <c r="O76" s="58"/>
-      <c r="P76" s="58"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="50"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C77" s="79"/>
-      <c r="D77" s="79"/>
-      <c r="L77" s="66" t="s">
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="L77" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="M77" s="58"/>
-      <c r="N77" s="58"/>
-      <c r="O77" s="58"/>
-      <c r="P77" s="58"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="50"/>
+      <c r="P77" s="50"/>
     </row>
     <row r="78" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B78" s="76" t="s">
+      <c r="B78" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="L78" s="66" t="s">
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="L78" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M78" s="58"/>
-      <c r="N78" s="58"/>
-      <c r="O78" s="58"/>
-      <c r="P78" s="58"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="50"/>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="38" t="s">
@@ -4956,689 +4956,689 @@
       <c r="D79" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L79" s="66" t="s">
+      <c r="L79" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M79" s="58"/>
-      <c r="N79" s="58"/>
-      <c r="O79" s="58"/>
-      <c r="P79" s="58"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="50"/>
+      <c r="P79" s="50"/>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B80" s="83" t="s">
+      <c r="B80" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="77">
+      <c r="C80" s="69">
         <v>0.44</v>
       </c>
-      <c r="D80" s="50">
+      <c r="D80" s="77">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
-      <c r="L80" s="66" t="s">
+      <c r="L80" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="M80" s="58"/>
-      <c r="N80" s="58"/>
-      <c r="O80" s="58"/>
-      <c r="P80" s="58"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="50"/>
+      <c r="P80" s="50"/>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B81" s="83" t="s">
+      <c r="B81" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="77">
+      <c r="C81" s="69">
         <v>0.44</v>
       </c>
-      <c r="D81" s="51"/>
-      <c r="L81" s="66" t="s">
+      <c r="D81" s="78"/>
+      <c r="L81" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="M81" s="58"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="58"/>
-      <c r="P81" s="58"/>
+      <c r="M81" s="50"/>
+      <c r="N81" s="50"/>
+      <c r="O81" s="50"/>
+      <c r="P81" s="50"/>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B82" s="83" t="s">
+      <c r="B82" s="75" t="s">
         <v>92</v>
       </c>
       <c r="C82" s="48">
         <v>0.44</v>
       </c>
-      <c r="D82" s="52"/>
-      <c r="L82" s="66" t="s">
+      <c r="D82" s="79"/>
+      <c r="L82" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="M82" s="58"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="58"/>
-      <c r="P82" s="58"/>
+      <c r="M82" s="50"/>
+      <c r="N82" s="50"/>
+      <c r="O82" s="50"/>
+      <c r="P82" s="50"/>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L83" s="66" t="s">
+      <c r="L83" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="M83" s="58"/>
-      <c r="N83" s="58"/>
-      <c r="O83" s="58"/>
-      <c r="P83" s="58"/>
+      <c r="M83" s="50"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="50"/>
+      <c r="P83" s="50"/>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L84" s="66" t="s">
+      <c r="L84" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="M84" s="58"/>
-      <c r="N84" s="58"/>
-      <c r="O84" s="58"/>
-      <c r="P84" s="58"/>
+      <c r="M84" s="50"/>
+      <c r="N84" s="50"/>
+      <c r="O84" s="50"/>
+      <c r="P84" s="50"/>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L85" s="66" t="s">
+      <c r="L85" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="M85" s="58"/>
-      <c r="N85" s="58"/>
-      <c r="O85" s="58"/>
-      <c r="P85" s="58"/>
+      <c r="M85" s="50"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="50"/>
+      <c r="P85" s="50"/>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L86" s="66" t="s">
+      <c r="L86" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="M86" s="58"/>
-      <c r="N86" s="58"/>
-      <c r="O86" s="58"/>
-      <c r="P86" s="58"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="50"/>
+      <c r="P86" s="50"/>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L87" s="66" t="s">
+      <c r="L87" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="M87" s="58"/>
-      <c r="N87" s="58"/>
-      <c r="O87" s="58"/>
-      <c r="P87" s="58"/>
+      <c r="M87" s="50"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="50"/>
+      <c r="P87" s="50"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L88" s="66" t="s">
+      <c r="L88" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="M88" s="58"/>
-      <c r="N88" s="58"/>
-      <c r="O88" s="58"/>
-      <c r="P88" s="58"/>
+      <c r="M88" s="50"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="50"/>
+      <c r="P88" s="50"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L89" s="66" t="s">
+      <c r="L89" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="M89" s="58"/>
-      <c r="N89" s="58"/>
-      <c r="O89" s="58"/>
-      <c r="P89" s="58"/>
+      <c r="M89" s="50"/>
+      <c r="N89" s="50"/>
+      <c r="O89" s="50"/>
+      <c r="P89" s="50"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L90" s="66" t="s">
+      <c r="L90" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="M90" s="58"/>
-      <c r="N90" s="58"/>
-      <c r="O90" s="58"/>
-      <c r="P90" s="58"/>
+      <c r="M90" s="50"/>
+      <c r="N90" s="50"/>
+      <c r="O90" s="50"/>
+      <c r="P90" s="50"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L91" s="66" t="s">
+      <c r="L91" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="M91" s="58"/>
-      <c r="N91" s="58"/>
-      <c r="O91" s="58"/>
-      <c r="P91" s="58"/>
+      <c r="M91" s="50"/>
+      <c r="N91" s="50"/>
+      <c r="O91" s="50"/>
+      <c r="P91" s="50"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L92" s="66" t="s">
+      <c r="L92" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="M92" s="58"/>
-      <c r="N92" s="58"/>
-      <c r="O92" s="58"/>
-      <c r="P92" s="58"/>
+      <c r="M92" s="50"/>
+      <c r="N92" s="50"/>
+      <c r="O92" s="50"/>
+      <c r="P92" s="50"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L93" s="66" t="s">
+      <c r="L93" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="M93" s="58"/>
-      <c r="N93" s="58"/>
-      <c r="O93" s="58"/>
-      <c r="P93" s="58"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="50"/>
+      <c r="P93" s="50"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L94" s="66" t="s">
+      <c r="L94" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="M94" s="58"/>
-      <c r="N94" s="58"/>
-      <c r="O94" s="58"/>
-      <c r="P94" s="58"/>
+      <c r="M94" s="50"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="50"/>
+      <c r="P94" s="50"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L95" s="66" t="s">
+      <c r="L95" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="M95" s="58"/>
-      <c r="N95" s="58"/>
-      <c r="O95" s="58"/>
-      <c r="P95" s="58"/>
+      <c r="M95" s="50"/>
+      <c r="N95" s="50"/>
+      <c r="O95" s="50"/>
+      <c r="P95" s="50"/>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L96" s="66" t="s">
+      <c r="L96" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="M96" s="58"/>
-      <c r="N96" s="58"/>
-      <c r="O96" s="58"/>
-      <c r="P96" s="58"/>
+      <c r="M96" s="50"/>
+      <c r="N96" s="50"/>
+      <c r="O96" s="50"/>
+      <c r="P96" s="50"/>
     </row>
     <row r="97" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L97" s="66" t="s">
+      <c r="L97" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="M97" s="58"/>
-      <c r="N97" s="58"/>
-      <c r="O97" s="58"/>
-      <c r="P97" s="58"/>
+      <c r="M97" s="50"/>
+      <c r="N97" s="50"/>
+      <c r="O97" s="50"/>
+      <c r="P97" s="50"/>
     </row>
     <row r="98" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L98" s="66" t="s">
+      <c r="L98" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="M98" s="58"/>
-      <c r="N98" s="58"/>
-      <c r="O98" s="58"/>
-      <c r="P98" s="58"/>
+      <c r="M98" s="50"/>
+      <c r="N98" s="50"/>
+      <c r="O98" s="50"/>
+      <c r="P98" s="50"/>
     </row>
     <row r="99" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L99" s="66" t="s">
+      <c r="L99" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="M99" s="58"/>
-      <c r="N99" s="58"/>
-      <c r="O99" s="58"/>
-      <c r="P99" s="58"/>
+      <c r="M99" s="50"/>
+      <c r="N99" s="50"/>
+      <c r="O99" s="50"/>
+      <c r="P99" s="50"/>
     </row>
     <row r="100" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L100" s="66" t="s">
+      <c r="L100" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="M100" s="58"/>
-      <c r="N100" s="58"/>
-      <c r="O100" s="58"/>
-      <c r="P100" s="58"/>
+      <c r="M100" s="50"/>
+      <c r="N100" s="50"/>
+      <c r="O100" s="50"/>
+      <c r="P100" s="50"/>
     </row>
     <row r="101" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L101" s="66" t="s">
+      <c r="L101" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="M101" s="58"/>
-      <c r="N101" s="58"/>
-      <c r="O101" s="58"/>
-      <c r="P101" s="58"/>
+      <c r="M101" s="50"/>
+      <c r="N101" s="50"/>
+      <c r="O101" s="50"/>
+      <c r="P101" s="50"/>
     </row>
     <row r="102" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L102" s="66" t="s">
+      <c r="L102" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="M102" s="58"/>
-      <c r="N102" s="58"/>
-      <c r="O102" s="58"/>
-      <c r="P102" s="58"/>
+      <c r="M102" s="50"/>
+      <c r="N102" s="50"/>
+      <c r="O102" s="50"/>
+      <c r="P102" s="50"/>
     </row>
     <row r="103" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L103" s="66" t="s">
+      <c r="L103" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="M103" s="58"/>
-      <c r="N103" s="58"/>
-      <c r="O103" s="58"/>
-      <c r="P103" s="58"/>
+      <c r="M103" s="50"/>
+      <c r="N103" s="50"/>
+      <c r="O103" s="50"/>
+      <c r="P103" s="50"/>
     </row>
     <row r="104" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L104" s="66" t="s">
+      <c r="L104" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="M104" s="58"/>
-      <c r="N104" s="58"/>
-      <c r="O104" s="58"/>
-      <c r="P104" s="58"/>
+      <c r="M104" s="50"/>
+      <c r="N104" s="50"/>
+      <c r="O104" s="50"/>
+      <c r="P104" s="50"/>
     </row>
     <row r="105" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L105" s="66" t="s">
+      <c r="L105" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="M105" s="58"/>
-      <c r="N105" s="58"/>
-      <c r="O105" s="58"/>
-      <c r="P105" s="58"/>
+      <c r="M105" s="50"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="50"/>
+      <c r="P105" s="50"/>
     </row>
     <row r="106" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L106" s="66" t="s">
+      <c r="L106" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="M106" s="58"/>
-      <c r="N106" s="58"/>
-      <c r="O106" s="58"/>
-      <c r="P106" s="58"/>
+      <c r="M106" s="50"/>
+      <c r="N106" s="50"/>
+      <c r="O106" s="50"/>
+      <c r="P106" s="50"/>
     </row>
     <row r="107" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L107" s="66" t="s">
+      <c r="L107" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="M107" s="58"/>
-      <c r="N107" s="58"/>
-      <c r="O107" s="58"/>
-      <c r="P107" s="58"/>
+      <c r="M107" s="50"/>
+      <c r="N107" s="50"/>
+      <c r="O107" s="50"/>
+      <c r="P107" s="50"/>
     </row>
     <row r="108" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L108" s="66" t="s">
+      <c r="L108" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="M108" s="58"/>
-      <c r="N108" s="58"/>
-      <c r="O108" s="58"/>
-      <c r="P108" s="58"/>
+      <c r="M108" s="50"/>
+      <c r="N108" s="50"/>
+      <c r="O108" s="50"/>
+      <c r="P108" s="50"/>
     </row>
     <row r="109" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L109" s="66" t="s">
+      <c r="L109" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="M109" s="58"/>
-      <c r="N109" s="58"/>
-      <c r="O109" s="58"/>
-      <c r="P109" s="58"/>
+      <c r="M109" s="50"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="50"/>
+      <c r="P109" s="50"/>
     </row>
     <row r="110" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L110" s="66" t="s">
+      <c r="L110" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="M110" s="58"/>
-      <c r="N110" s="58"/>
-      <c r="O110" s="58"/>
-      <c r="P110" s="58"/>
+      <c r="M110" s="50"/>
+      <c r="N110" s="50"/>
+      <c r="O110" s="50"/>
+      <c r="P110" s="50"/>
     </row>
     <row r="111" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L111" s="66" t="s">
+      <c r="L111" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="M111" s="58"/>
-      <c r="N111" s="58"/>
-      <c r="O111" s="58"/>
-      <c r="P111" s="58"/>
+      <c r="M111" s="50"/>
+      <c r="N111" s="50"/>
+      <c r="O111" s="50"/>
+      <c r="P111" s="50"/>
     </row>
     <row r="112" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L112" s="66" t="s">
+      <c r="L112" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="M112" s="58"/>
-      <c r="N112" s="58"/>
-      <c r="O112" s="58"/>
-      <c r="P112" s="58"/>
+      <c r="M112" s="50"/>
+      <c r="N112" s="50"/>
+      <c r="O112" s="50"/>
+      <c r="P112" s="50"/>
     </row>
     <row r="113" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L113" s="66" t="s">
+      <c r="L113" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="M113" s="58"/>
-      <c r="N113" s="58"/>
-      <c r="O113" s="58"/>
-      <c r="P113" s="58"/>
+      <c r="M113" s="50"/>
+      <c r="N113" s="50"/>
+      <c r="O113" s="50"/>
+      <c r="P113" s="50"/>
     </row>
     <row r="114" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L114" s="66" t="s">
+      <c r="L114" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="M114" s="58"/>
-      <c r="N114" s="58"/>
-      <c r="O114" s="58"/>
-      <c r="P114" s="58"/>
+      <c r="M114" s="50"/>
+      <c r="N114" s="50"/>
+      <c r="O114" s="50"/>
+      <c r="P114" s="50"/>
     </row>
     <row r="115" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L115" s="66" t="s">
+      <c r="L115" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="M115" s="58"/>
-      <c r="N115" s="58"/>
-      <c r="O115" s="58"/>
-      <c r="P115" s="58"/>
+      <c r="M115" s="50"/>
+      <c r="N115" s="50"/>
+      <c r="O115" s="50"/>
+      <c r="P115" s="50"/>
     </row>
     <row r="116" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L116" s="66" t="s">
+      <c r="L116" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="M116" s="58"/>
-      <c r="N116" s="58"/>
-      <c r="O116" s="58"/>
-      <c r="P116" s="58"/>
+      <c r="M116" s="50"/>
+      <c r="N116" s="50"/>
+      <c r="O116" s="50"/>
+      <c r="P116" s="50"/>
     </row>
     <row r="117" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L117" s="66" t="s">
+      <c r="L117" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="M117" s="58"/>
-      <c r="N117" s="58"/>
-      <c r="O117" s="58"/>
-      <c r="P117" s="58"/>
+      <c r="M117" s="50"/>
+      <c r="N117" s="50"/>
+      <c r="O117" s="50"/>
+      <c r="P117" s="50"/>
     </row>
     <row r="118" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L118" s="66" t="s">
+      <c r="L118" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="M118" s="58"/>
-      <c r="N118" s="58"/>
-      <c r="O118" s="58"/>
-      <c r="P118" s="58"/>
+      <c r="M118" s="50"/>
+      <c r="N118" s="50"/>
+      <c r="O118" s="50"/>
+      <c r="P118" s="50"/>
     </row>
     <row r="119" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L119" s="66" t="s">
+      <c r="L119" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="M119" s="58"/>
-      <c r="N119" s="58"/>
-      <c r="O119" s="58"/>
-      <c r="P119" s="58"/>
+      <c r="M119" s="50"/>
+      <c r="N119" s="50"/>
+      <c r="O119" s="50"/>
+      <c r="P119" s="50"/>
     </row>
     <row r="120" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L120" s="66" t="s">
+      <c r="L120" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="M120" s="58"/>
-      <c r="N120" s="58"/>
-      <c r="O120" s="58"/>
-      <c r="P120" s="58"/>
+      <c r="M120" s="50"/>
+      <c r="N120" s="50"/>
+      <c r="O120" s="50"/>
+      <c r="P120" s="50"/>
     </row>
     <row r="121" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L121" s="66" t="s">
+      <c r="L121" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="M121" s="58"/>
-      <c r="N121" s="58"/>
-      <c r="O121" s="58"/>
-      <c r="P121" s="58"/>
+      <c r="M121" s="50"/>
+      <c r="N121" s="50"/>
+      <c r="O121" s="50"/>
+      <c r="P121" s="50"/>
     </row>
     <row r="122" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L122" s="66" t="s">
+      <c r="L122" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="M122" s="58"/>
-      <c r="N122" s="58"/>
-      <c r="O122" s="58"/>
-      <c r="P122" s="58"/>
+      <c r="M122" s="50"/>
+      <c r="N122" s="50"/>
+      <c r="O122" s="50"/>
+      <c r="P122" s="50"/>
     </row>
     <row r="123" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L123" s="66" t="s">
+      <c r="L123" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="M123" s="58"/>
-      <c r="N123" s="58"/>
-      <c r="O123" s="58"/>
-      <c r="P123" s="58"/>
+      <c r="M123" s="50"/>
+      <c r="N123" s="50"/>
+      <c r="O123" s="50"/>
+      <c r="P123" s="50"/>
     </row>
     <row r="124" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L124" s="66" t="s">
+      <c r="L124" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="M124" s="58"/>
-      <c r="N124" s="58"/>
-      <c r="O124" s="58"/>
-      <c r="P124" s="58"/>
+      <c r="M124" s="50"/>
+      <c r="N124" s="50"/>
+      <c r="O124" s="50"/>
+      <c r="P124" s="50"/>
     </row>
     <row r="125" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L125" s="66" t="s">
+      <c r="L125" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="M125" s="58"/>
-      <c r="N125" s="58"/>
-      <c r="O125" s="58"/>
-      <c r="P125" s="58"/>
+      <c r="M125" s="50"/>
+      <c r="N125" s="50"/>
+      <c r="O125" s="50"/>
+      <c r="P125" s="50"/>
     </row>
     <row r="126" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L126" s="66" t="s">
+      <c r="L126" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="M126" s="58"/>
-      <c r="N126" s="58"/>
-      <c r="O126" s="58"/>
-      <c r="P126" s="58"/>
+      <c r="M126" s="50"/>
+      <c r="N126" s="50"/>
+      <c r="O126" s="50"/>
+      <c r="P126" s="50"/>
     </row>
     <row r="127" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L127" s="66" t="s">
+      <c r="L127" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="M127" s="58"/>
-      <c r="N127" s="58"/>
-      <c r="O127" s="58"/>
-      <c r="P127" s="58"/>
+      <c r="M127" s="50"/>
+      <c r="N127" s="50"/>
+      <c r="O127" s="50"/>
+      <c r="P127" s="50"/>
     </row>
     <row r="128" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L128" s="66" t="s">
+      <c r="L128" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="M128" s="58"/>
-      <c r="N128" s="58"/>
-      <c r="O128" s="58"/>
-      <c r="P128" s="58"/>
+      <c r="M128" s="50"/>
+      <c r="N128" s="50"/>
+      <c r="O128" s="50"/>
+      <c r="P128" s="50"/>
     </row>
     <row r="129" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L129" s="66" t="s">
+      <c r="L129" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="M129" s="58"/>
-      <c r="N129" s="58"/>
-      <c r="O129" s="58"/>
-      <c r="P129" s="58"/>
+      <c r="M129" s="50"/>
+      <c r="N129" s="50"/>
+      <c r="O129" s="50"/>
+      <c r="P129" s="50"/>
     </row>
     <row r="130" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L130" s="66" t="s">
+      <c r="L130" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="M130" s="58"/>
-      <c r="N130" s="58"/>
-      <c r="O130" s="58"/>
-      <c r="P130" s="58"/>
+      <c r="M130" s="50"/>
+      <c r="N130" s="50"/>
+      <c r="O130" s="50"/>
+      <c r="P130" s="50"/>
     </row>
     <row r="131" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L131" s="66" t="s">
+      <c r="L131" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="M131" s="58"/>
-      <c r="N131" s="58"/>
-      <c r="O131" s="58"/>
-      <c r="P131" s="58"/>
+      <c r="M131" s="50"/>
+      <c r="N131" s="50"/>
+      <c r="O131" s="50"/>
+      <c r="P131" s="50"/>
     </row>
     <row r="132" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L132" s="66" t="s">
+      <c r="L132" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="M132" s="58"/>
-      <c r="N132" s="58"/>
-      <c r="O132" s="58"/>
-      <c r="P132" s="58"/>
+      <c r="M132" s="50"/>
+      <c r="N132" s="50"/>
+      <c r="O132" s="50"/>
+      <c r="P132" s="50"/>
     </row>
     <row r="133" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L133" s="66" t="s">
+      <c r="L133" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="M133" s="58"/>
-      <c r="N133" s="58"/>
-      <c r="O133" s="58"/>
-      <c r="P133" s="58"/>
+      <c r="M133" s="50"/>
+      <c r="N133" s="50"/>
+      <c r="O133" s="50"/>
+      <c r="P133" s="50"/>
     </row>
     <row r="134" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L134" s="66" t="s">
+      <c r="L134" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="M134" s="58"/>
-      <c r="N134" s="58"/>
-      <c r="O134" s="58"/>
-      <c r="P134" s="58"/>
+      <c r="M134" s="50"/>
+      <c r="N134" s="50"/>
+      <c r="O134" s="50"/>
+      <c r="P134" s="50"/>
     </row>
     <row r="135" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L135" s="66" t="s">
+      <c r="L135" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="M135" s="58"/>
-      <c r="N135" s="58"/>
-      <c r="O135" s="58"/>
-      <c r="P135" s="58"/>
+      <c r="M135" s="50"/>
+      <c r="N135" s="50"/>
+      <c r="O135" s="50"/>
+      <c r="P135" s="50"/>
     </row>
     <row r="136" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L136" s="66" t="s">
+      <c r="L136" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="M136" s="58"/>
-      <c r="N136" s="58"/>
-      <c r="O136" s="58"/>
-      <c r="P136" s="58"/>
+      <c r="M136" s="50"/>
+      <c r="N136" s="50"/>
+      <c r="O136" s="50"/>
+      <c r="P136" s="50"/>
     </row>
     <row r="137" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L137" s="66" t="s">
+      <c r="L137" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="M137" s="58"/>
-      <c r="N137" s="58"/>
-      <c r="O137" s="58"/>
-      <c r="P137" s="58"/>
+      <c r="M137" s="50"/>
+      <c r="N137" s="50"/>
+      <c r="O137" s="50"/>
+      <c r="P137" s="50"/>
     </row>
     <row r="138" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L138" s="66" t="s">
+      <c r="L138" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="M138" s="58"/>
-      <c r="N138" s="58"/>
-      <c r="O138" s="58"/>
-      <c r="P138" s="58"/>
+      <c r="M138" s="50"/>
+      <c r="N138" s="50"/>
+      <c r="O138" s="50"/>
+      <c r="P138" s="50"/>
     </row>
     <row r="139" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L139" s="66" t="s">
+      <c r="L139" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="M139" s="58"/>
-      <c r="N139" s="58"/>
-      <c r="O139" s="58"/>
-      <c r="P139" s="58"/>
+      <c r="M139" s="50"/>
+      <c r="N139" s="50"/>
+      <c r="O139" s="50"/>
+      <c r="P139" s="50"/>
     </row>
     <row r="140" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L140" s="66" t="s">
+      <c r="L140" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="M140" s="58"/>
-      <c r="N140" s="58"/>
-      <c r="O140" s="58"/>
-      <c r="P140" s="58"/>
+      <c r="M140" s="50"/>
+      <c r="N140" s="50"/>
+      <c r="O140" s="50"/>
+      <c r="P140" s="50"/>
     </row>
     <row r="141" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L141" s="68" t="s">
+      <c r="L141" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="M141" s="58"/>
-      <c r="N141" s="58"/>
-      <c r="O141" s="58"/>
-      <c r="P141" s="58"/>
+      <c r="M141" s="50"/>
+      <c r="N141" s="50"/>
+      <c r="O141" s="50"/>
+      <c r="P141" s="50"/>
     </row>
     <row r="142" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L142" s="68" t="s">
+      <c r="L142" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="M142" s="58"/>
-      <c r="N142" s="58"/>
-      <c r="O142" s="58"/>
-      <c r="P142" s="58"/>
+      <c r="M142" s="50"/>
+      <c r="N142" s="50"/>
+      <c r="O142" s="50"/>
+      <c r="P142" s="50"/>
     </row>
     <row r="143" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L143" s="66" t="s">
+      <c r="L143" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="M143" s="58"/>
-      <c r="N143" s="58"/>
-      <c r="O143" s="58"/>
-      <c r="P143" s="58"/>
+      <c r="M143" s="50"/>
+      <c r="N143" s="50"/>
+      <c r="O143" s="50"/>
+      <c r="P143" s="50"/>
     </row>
     <row r="144" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L144" s="66" t="s">
+      <c r="L144" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="M144" s="58"/>
-      <c r="N144" s="58"/>
-      <c r="O144" s="58"/>
-      <c r="P144" s="58"/>
+      <c r="M144" s="50"/>
+      <c r="N144" s="50"/>
+      <c r="O144" s="50"/>
+      <c r="P144" s="50"/>
     </row>
     <row r="145" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L145" s="66" t="s">
+      <c r="L145" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="M145" s="58"/>
-      <c r="N145" s="58"/>
-      <c r="O145" s="58"/>
-      <c r="P145" s="58"/>
+      <c r="M145" s="50"/>
+      <c r="N145" s="50"/>
+      <c r="O145" s="50"/>
+      <c r="P145" s="50"/>
     </row>
     <row r="146" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L146" s="66" t="s">
+      <c r="L146" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="M146" s="58"/>
-      <c r="N146" s="58"/>
-      <c r="O146" s="58"/>
-      <c r="P146" s="58"/>
+      <c r="M146" s="50"/>
+      <c r="N146" s="50"/>
+      <c r="O146" s="50"/>
+      <c r="P146" s="50"/>
     </row>
     <row r="147" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L147" s="66" t="s">
+      <c r="L147" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="M147" s="58"/>
-      <c r="N147" s="58"/>
-      <c r="O147" s="58"/>
-      <c r="P147" s="58"/>
+      <c r="M147" s="50"/>
+      <c r="N147" s="50"/>
+      <c r="O147" s="50"/>
+      <c r="P147" s="50"/>
     </row>
     <row r="148" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L148" s="66" t="s">
+      <c r="L148" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="M148" s="58"/>
-      <c r="N148" s="58"/>
-      <c r="O148" s="58"/>
-      <c r="P148" s="58"/>
+      <c r="M148" s="50"/>
+      <c r="N148" s="50"/>
+      <c r="O148" s="50"/>
+      <c r="P148" s="50"/>
     </row>
     <row r="149" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L149" s="66" t="s">
+      <c r="L149" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="M149" s="58"/>
-      <c r="N149" s="58"/>
-      <c r="O149" s="58"/>
-      <c r="P149" s="58"/>
+      <c r="M149" s="50"/>
+      <c r="N149" s="50"/>
+      <c r="O149" s="50"/>
+      <c r="P149" s="50"/>
     </row>
     <row r="150" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L150" s="66" t="s">
+      <c r="L150" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M150" s="58"/>
-      <c r="N150" s="58"/>
-      <c r="O150" s="58"/>
-      <c r="P150" s="58"/>
+      <c r="M150" s="50"/>
+      <c r="N150" s="50"/>
+      <c r="O150" s="50"/>
+      <c r="P150" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D34:D36"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="D74:D76"/>
     <mergeCell ref="D80:D82"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="D34:D36"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B13" xr:uid="{5FEB7208-9EC2-4939-A7BD-9E91958F93F6}">
@@ -5703,10 +5703,10 @@
   <sheetData>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="32">
         <v>7</v>
       </c>
@@ -5718,10 +5718,10 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="29" t="s">
         <v>68</v>
       </c>
@@ -5955,6 +5955,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BC8D1A6D9755BA4DACDC023AEE321D58" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8407c33dbc57c22b02890f9ab05f88f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cec9201-ec77-4532-add3-9cf0afa67a3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="414e73d62fa2934c35f1272b2dae311a" ns3:_="">
     <xsd:import namespace="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
@@ -6100,15 +6109,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742AAA9-DDA3-4D79-8010-354B400D5BEC}">
   <ds:schemaRefs>
@@ -6126,6 +6126,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB979463-6A6C-4761-86FC-11C8EC0FC4C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6141,12 +6149,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/trydoc.xlsx
+++ b/trydoc.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpringProjects\spring-arquitectura-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A7C733-48C7-48C8-B361-B4E9B0A1BBAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4B270F-4865-4E9E-A682-566303CEAC6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="3435" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Form-Envolvente-1" sheetId="1" r:id="rId1"/>
-    <sheet name="Form-Envolvente-2" sheetId="6" r:id="rId2"/>
+    <sheet name="Form-Envolvente-2" sheetId="9" r:id="rId2"/>
     <sheet name="Form-Envolvente-3" sheetId="7" r:id="rId3"/>
     <sheet name="Form-Envolvente-4" sheetId="8" r:id="rId4"/>
     <sheet name="Form-Condensadores" sheetId="5" r:id="rId5"/>
@@ -26,10 +26,14 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
+    <definedName name="ListaResistenciaCamaraAire" localSheetId="1">'Form-Envolvente-2'!$Q$3:$Q$18</definedName>
     <definedName name="ListaResistenciaCamaraAire">'Form-Envolvente-1'!$Q$3:$Q$18</definedName>
+    <definedName name="ListaTipoCarpinteriaMarcoVentanaVerical" localSheetId="1">'Form-Envolvente-2'!$O$3:$O$10</definedName>
     <definedName name="ListaTipoCarpinteriaMarcoVentanaVerical" localSheetId="6">'[1]Form-Envolvente-1'!$O$3:$O$10</definedName>
     <definedName name="ListaTipoCarpinteriaMarcoVentanaVerical">'Form-Envolvente-1'!$O$3:$O$10</definedName>
+    <definedName name="ListaTipoMaterialesVarios" localSheetId="1">'Form-Envolvente-2'!$O$13:$O$132</definedName>
     <definedName name="ListaTipoMaterialesVarios">'Form-Envolvente-1'!$O$13:$O$132</definedName>
+    <definedName name="ListaTipoVidrioPoli" localSheetId="1">'Form-Envolvente-2'!$M$3:$M$26</definedName>
     <definedName name="ListaTipoVidrioPoli" localSheetId="6">'[1]Form-Envolvente-1'!$M$3:$M$26</definedName>
     <definedName name="ListaTipoVidrioPoli">'Form-Envolvente-1'!$M$3:$M$26</definedName>
     <definedName name="TIPO_DE_CARPINTERÍA_DE_PUERTA_O_MARCO__CON_AMBIENTE_EXTERIOR">'[2]1.Térmico'!$V$26:$V$39</definedName>
@@ -79,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="271">
   <si>
     <t xml:space="preserve">1.1) </t>
   </si>
@@ -880,6 +884,45 @@
   </si>
   <si>
     <t xml:space="preserve">3.4) </t>
+  </si>
+  <si>
+    <t>Composición:</t>
+  </si>
+  <si>
+    <t>Losas tipo 2B (sobre ambientes no habitables de altura mayor o igual a 1 metro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3) </t>
+  </si>
+  <si>
+    <t>Puente Térmico: Caja de persianas (en caso el proyecto lo contemple). Ver definición en numeral 5.7 del Glosario</t>
+  </si>
+  <si>
+    <t>Puente Térmico: Vestidura de derrame (en caso el proyecto lo contemple). Ver definición en numeral 5.53 del Glosario</t>
+  </si>
+  <si>
+    <t>Puente Térmico: Viga N° 2</t>
+  </si>
+  <si>
+    <t>Puente Térmico: Viga N° 1</t>
+  </si>
+  <si>
+    <t>Puente Térmico: Sobrecimiento N° 2</t>
+  </si>
+  <si>
+    <t>Puente Térmico: Sobrecimiento N° 1</t>
+  </si>
+  <si>
+    <t>Muros tipo 2A (verticales de separación con ambientes no acondicionados o espacios de separación)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1) </t>
+  </si>
+  <si>
+    <t>Envolvente 2</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1699,6 +1742,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2318,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DABA7AB-2E09-4285-B659-D9F0D56E558C}">
   <dimension ref="A2:Q132"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:B53"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,14 +3562,1659 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F6DADF-A6E3-4FC6-8C9A-3A226B339427}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D58F649-7C2E-467B-83D1-668A13960686}">
+  <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A136" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="72.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50" customWidth="1"/>
+    <col min="17" max="17" width="41.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+    </row>
+    <row r="2" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="M2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="M3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="M5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>14.4</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>14.4</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="47" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="M11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f>(1.2*4)*10</f>
+        <v>48</v>
+      </c>
+      <c r="E13" s="8">
+        <f>C13*D13</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="47" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f>(1.2*4)*10</f>
+        <v>48</v>
+      </c>
+      <c r="E14" s="8">
+        <f>C14*D14</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <f>(1.2*4)*10</f>
+        <v>48</v>
+      </c>
+      <c r="E15" s="8">
+        <f>C15*D15</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" s="47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="47" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="M18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18" s="47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="8">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="M21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="8">
+        <f>(0.9*2.1)*2</f>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="M22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="8">
+        <f>(0.9*2.1)*2</f>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="1"/>
+      <c r="M25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="70"/>
+      <c r="O27" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="70"/>
+      <c r="O28" s="43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="40">
+        <v>0.11</v>
+      </c>
+      <c r="O30" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="40">
+        <v>0.06</v>
+      </c>
+      <c r="O31" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O32" s="43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="O33" s="43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="33"/>
+      <c r="O34" s="43"/>
+    </row>
+    <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O35" s="43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O36" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D37" s="77">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+      <c r="O37" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D38" s="78"/>
+      <c r="O38" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D39" s="79"/>
+      <c r="O39" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="O41" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="33"/>
+      <c r="O42" s="43"/>
+    </row>
+    <row r="43" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O43" s="44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O44" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="D45" s="77">
+        <v>24.5</v>
+      </c>
+      <c r="O45" s="43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="D46" s="78"/>
+      <c r="O46" s="43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="D47" s="79"/>
+      <c r="O47" s="43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="O49" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="O51" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O52" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="O53" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O55" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O56" s="43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D57" s="77">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+      <c r="O57" s="43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D58" s="78"/>
+      <c r="O58" s="43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D59" s="79"/>
+      <c r="O59" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O60" s="43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="O61" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O62" s="43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="O63" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O64" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="O65" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O66" s="43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O67" s="43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O68" s="43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D69" s="77">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+      <c r="O69" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D70" s="78"/>
+      <c r="O70" s="43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D71" s="79"/>
+      <c r="O71" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O72" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B73" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="O73" s="43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O74" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="O75" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O76" s="43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="48">
+        <v>1</v>
+      </c>
+      <c r="D77" s="77">
+        <v>24.5</v>
+      </c>
+      <c r="O77" s="43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="48">
+        <v>1</v>
+      </c>
+      <c r="D78" s="78"/>
+      <c r="O78" s="43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" s="48">
+        <v>1</v>
+      </c>
+      <c r="D79" s="79"/>
+      <c r="O79" s="43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O80" s="43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B81" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="O81" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O82" s="43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="O83" s="43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O84" s="43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="48">
+        <v>1</v>
+      </c>
+      <c r="D85" s="77">
+        <v>24.5</v>
+      </c>
+      <c r="O85" s="43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="48">
+        <v>1</v>
+      </c>
+      <c r="D86" s="78"/>
+      <c r="O86" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="48">
+        <v>1</v>
+      </c>
+      <c r="D87" s="79"/>
+      <c r="O87" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O88" s="43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B89" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="O89" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O90" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B91" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="O91" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O92" s="43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="48">
+        <v>1</v>
+      </c>
+      <c r="D93" s="77">
+        <v>24.5</v>
+      </c>
+      <c r="O93" s="43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="48">
+        <v>1</v>
+      </c>
+      <c r="D94" s="78"/>
+      <c r="O94" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="48">
+        <v>1</v>
+      </c>
+      <c r="D95" s="79"/>
+      <c r="O95" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O96" s="43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B97" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O97" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O98" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B99" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="O99" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" s="43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="48">
+        <v>1</v>
+      </c>
+      <c r="D101" s="77">
+        <v>24.5</v>
+      </c>
+      <c r="O101" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="48">
+        <v>1</v>
+      </c>
+      <c r="D102" s="78"/>
+      <c r="O102" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" s="48">
+        <v>1</v>
+      </c>
+      <c r="D103" s="79"/>
+      <c r="O103" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O104" s="43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B105" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O105" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O106" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B107" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="O107" s="43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O108" s="43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="48">
+        <v>1</v>
+      </c>
+      <c r="D109" s="77">
+        <v>23.1</v>
+      </c>
+      <c r="O109" s="43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="48">
+        <v>1</v>
+      </c>
+      <c r="D110" s="78"/>
+      <c r="O110" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="48">
+        <v>1</v>
+      </c>
+      <c r="D111" s="79"/>
+      <c r="O111" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O112" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B113" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="O113" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O114" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B115" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="O115" s="43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B116" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O116" s="43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B117" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C117" s="48">
+        <v>1</v>
+      </c>
+      <c r="D117" s="77">
+        <v>23.1</v>
+      </c>
+      <c r="O117" s="43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B118" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C118" s="48">
+        <v>1</v>
+      </c>
+      <c r="D118" s="78"/>
+      <c r="O118" s="43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B119" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" s="48">
+        <v>1</v>
+      </c>
+      <c r="D119" s="79"/>
+      <c r="O119" s="43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O120" s="43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B121" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="O121" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O122" s="43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B123" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="O123" s="44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O124" s="44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B125" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D125" s="3">
+        <f>(1.2*4)*10</f>
+        <v>48</v>
+      </c>
+      <c r="E125" s="8">
+        <f>C125*D125</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="O125" s="43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B126" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D126" s="3">
+        <f>(1.2*4)*10</f>
+        <v>48</v>
+      </c>
+      <c r="E126" s="8">
+        <f>C126*D126</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="O126" s="43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B127" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D127" s="3">
+        <f>(1.2*4)*10</f>
+        <v>48</v>
+      </c>
+      <c r="E127" s="8">
+        <f>C127*D127</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="O127" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O128" s="43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B129" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="O129" s="43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O130" s="43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B131" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="O131" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B132" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O132" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B133" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B135" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B136" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B137" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C137" s="48">
+        <v>1</v>
+      </c>
+      <c r="D137" s="77">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B138" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C138" s="48">
+        <v>1</v>
+      </c>
+      <c r="D138" s="78"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B139" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C139" s="48">
+        <v>1</v>
+      </c>
+      <c r="D139" s="79"/>
+    </row>
+    <row r="142" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B142" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="C142" s="80"/>
+      <c r="D142" s="80"/>
+      <c r="E142" s="80"/>
+      <c r="F142" s="80"/>
+      <c r="G142" s="80"/>
+    </row>
+    <row r="144" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B144" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C144" s="70"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C145" s="70"/>
+    </row>
+    <row r="146" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B146" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C147" s="40">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C148" s="40">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H149" s="85"/>
+    </row>
+    <row r="150" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B150" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C152" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D152" s="77">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C153" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D153" s="78"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C154" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D154" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="D137:D139"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="D109:D111"/>
+  </mergeCells>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B23" xr:uid="{5F032077-0F11-4022-B12C-DE4FE12F1034}">
+      <formula1>TIPO_DE_CARPINTERÍA_DE_PUERTA_O_MARCO__CON_AMBIENTE_EXTERIOR</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16 B127" xr:uid="{3EFB093D-CB1B-44B7-A222-ABA6BB30765E}">
+      <formula1>TIPO_DE_CARPINTERÍA_DEL_MARCO__DE_VENTANA__VERTICAL</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B9" xr:uid="{04FD1850-6362-464A-8CA7-FD65C6171DE7}">
+      <formula1>ListaTipoVidrioPoli</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15 B125:B127" xr:uid="{C963CFF7-A837-4D10-8790-C279580F7CF9}">
+      <formula1>ListaTipoCarpinteriaMarcoVentanaVerical</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B39 B45:B47 B57:B59 B69:B71 B77:B79 B85:B87 B93:B95 B101:B103 B109:B111 B117:B119 B137:B139 B152:B154" xr:uid="{CE551986-1916-4CA6-8DAB-487A6E93618D}">
+      <formula1>ListaTipoMaterialesVarios</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{598D0740-B4DA-41E6-9B8C-164C8061A4C7}">
+      <formula1>$M$31:$M$61</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53 B65 B133" xr:uid="{C9568652-519D-4905-9865-91E630E9C060}">
+      <formula1>ListaResistenciaCamaraAire</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3527,7 +5222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7B915D-F4AF-4501-AD9D-A15696411677}">
   <dimension ref="A2:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D34" sqref="D34:D36"/>
     </sheetView>
   </sheetViews>
@@ -5629,16 +7324,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="B49:G49"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="B49:G49"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B13" xr:uid="{5FEB7208-9EC2-4939-A7BD-9E91958F93F6}">
@@ -5949,21 +7644,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BC8D1A6D9755BA4DACDC023AEE321D58" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8407c33dbc57c22b02890f9ab05f88f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cec9201-ec77-4532-add3-9cf0afa67a3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="414e73d62fa2934c35f1272b2dae311a" ns3:_="">
     <xsd:import namespace="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
@@ -6109,31 +7789,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742AAA9-DDA3-4D79-8010-354B400D5BEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB979463-6A6C-4761-86FC-11C8EC0FC4C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6149,4 +7820,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742AAA9-DDA3-4D79-8010-354B400D5BEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/trydoc.xlsx
+++ b/trydoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpringProjects\spring-arquitectura-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD7E227-F60F-4902-97A0-27FE1253D133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E218247-F5D8-450E-9D6D-29CFF70B217A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20640" windowHeight="11310" activeTab="2" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
+    <workbookView xWindow="-11595" yWindow="6150" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Form-Envolvente-1" sheetId="1" r:id="rId1"/>
@@ -43,16 +43,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -93,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="279">
   <si>
     <t xml:space="preserve">1.1) </t>
   </si>
@@ -933,6 +923,30 @@
   </si>
   <si>
     <t>Concreto (simple)</t>
+  </si>
+  <si>
+    <t>Pisos tipo 4A (horizontales o ligeramente inclinados de separación entre el interior de la edificación con el terreno natural)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1) </t>
+  </si>
+  <si>
+    <t>Piso sin cámara de aire</t>
+  </si>
+  <si>
+    <t>Piso con cámara de aire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2) </t>
+  </si>
+  <si>
+    <t>Pisos tipo 4B (sobre espacio exterior &lt; 1 m, cámara de aire)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3) </t>
+  </si>
+  <si>
+    <t>Muros tipo 4C (enterrados o semienterrados)</t>
   </si>
 </sst>
 </file>
@@ -3972,12 +3986,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D57:D59"/>
     <mergeCell ref="D117:D119"/>
     <mergeCell ref="D137:D139"/>
     <mergeCell ref="B142:G142"/>
@@ -3987,6 +3995,12 @@
     <mergeCell ref="D93:D95"/>
     <mergeCell ref="D101:D103"/>
     <mergeCell ref="D109:D111"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D57:D59"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B23" xr:uid="{DF06D1ED-5973-4F52-9D1D-25867230B13C}">
@@ -4020,7 +4034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D58F649-7C2E-467B-83D1-668A13960686}">
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -5628,12 +5642,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D45:D47"/>
     <mergeCell ref="D117:D119"/>
     <mergeCell ref="D137:D139"/>
     <mergeCell ref="B142:G142"/>
@@ -5644,6 +5652,12 @@
     <mergeCell ref="D93:D95"/>
     <mergeCell ref="D101:D103"/>
     <mergeCell ref="D109:D111"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D45:D47"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B23" xr:uid="{5F032077-0F11-4022-B12C-DE4FE12F1034}">
@@ -5677,8 +5691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7B915D-F4AF-4501-AD9D-A15696411677}">
   <dimension ref="A2:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7779,16 +7793,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D58:D60"/>
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="D74:D76"/>
     <mergeCell ref="D80:D82"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D58:D60"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B13" xr:uid="{5FEB7208-9EC2-4939-A7BD-9E91958F93F6}">
@@ -7823,14 +7837,470 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D624E2-3D24-45F0-8014-12546FA36896}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="66">
+        <v>0.11</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="66">
+        <v>0.06</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D11" s="79">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="68" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D21" s="79">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="80"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="81"/>
+    </row>
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="66">
+        <v>0.11</v>
+      </c>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="66">
+        <v>0.06</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="68" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D39" s="79">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D40" s="80"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D41" s="81"/>
+    </row>
+    <row r="44" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D51" s="79">
+        <f>1.2*2.1</f>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D52" s="80"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="D53" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="B44:G44"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18 B36 B48" xr:uid="{4A12035C-D6E0-45A8-8A06-1E9AB3510D3A}">
+      <formula1>ListaResistenciaCamaraAire</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B21 B39 B51" xr:uid="{B9688BAB-6748-4B33-ABC3-D5636974A161}">
+      <formula1>$L$32:$L$150</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B13 B22:B23 B40:B41 B52:B53" xr:uid="{29099B45-12FB-43AE-8411-8FF989678B37}">
+      <formula1>ListaTipoMaterialesVarios</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8099,6 +8569,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BC8D1A6D9755BA4DACDC023AEE321D58" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8407c33dbc57c22b02890f9ab05f88f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cec9201-ec77-4532-add3-9cf0afa67a3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="414e73d62fa2934c35f1272b2dae311a" ns3:_="">
     <xsd:import namespace="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
@@ -8244,15 +8723,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8260,6 +8730,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB979463-6A6C-4761-86FC-11C8EC0FC4C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8273,14 +8751,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/trydoc.xlsx
+++ b/trydoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpringProjects\spring-arquitectura-backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael-PC\Documents\workspace-spring-tool-suite-4-4.13.1.RELEASE\spring-arquitectura-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E218247-F5D8-450E-9D6D-29CFF70B217A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3E6DD2-2646-4736-A95E-A0B227A87E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11595" yWindow="6150" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20640" windowHeight="11310" firstSheet="2" activeTab="6" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Form-Envolvente-1" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3986,6 +3996,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D57:D59"/>
     <mergeCell ref="D117:D119"/>
     <mergeCell ref="D137:D139"/>
     <mergeCell ref="B142:G142"/>
@@ -3995,12 +4011,6 @@
     <mergeCell ref="D93:D95"/>
     <mergeCell ref="D101:D103"/>
     <mergeCell ref="D109:D111"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D57:D59"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B23" xr:uid="{DF06D1ED-5973-4F52-9D1D-25867230B13C}">
@@ -5642,6 +5652,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D45:D47"/>
     <mergeCell ref="D117:D119"/>
     <mergeCell ref="D137:D139"/>
     <mergeCell ref="B142:G142"/>
@@ -5652,12 +5668,6 @@
     <mergeCell ref="D93:D95"/>
     <mergeCell ref="D101:D103"/>
     <mergeCell ref="D109:D111"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D45:D47"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B23" xr:uid="{5F032077-0F11-4022-B12C-DE4FE12F1034}">
@@ -7793,16 +7803,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="B49:G49"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="B49:G49"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B13" xr:uid="{5FEB7208-9EC2-4939-A7BD-9E91958F93F6}">
@@ -7839,8 +7849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D624E2-3D24-45F0-8014-12546FA36896}">
   <dimension ref="A2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8501,7 +8511,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B5:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -8569,12 +8579,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8724,15 +8731,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742AAA9-DDA3-4D79-8010-354B400D5BEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8756,17 +8774,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742AAA9-DDA3-4D79-8010-354B400D5BEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trydoc.xlsx
+++ b/trydoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpringProjects\spring-arquitectura-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7DCF3-997D-4E9C-A0BE-D117C739F8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A44A5D-6C4B-4AEC-9B46-84CED741AD39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20640" windowHeight="11310" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Form-Envolvente-1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Form-Envolvente-3" sheetId="7" r:id="rId3"/>
     <sheet name="Form-Envolvente-4" sheetId="8" r:id="rId4"/>
     <sheet name="Form-Condensadores" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId6"/>
+    <sheet name="Form-Luminico" sheetId="3" r:id="rId6"/>
     <sheet name="Form-Solar" sheetId="4" r:id="rId7"/>
   </sheets>
   <externalReferences>
@@ -44,21 +44,69 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MARIANO</author>
+  </authors>
+  <commentList>
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{2FF482D4-8F59-443C-95EF-D4ECB6F996F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MARIANO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+funciona sólo para 50%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{72C0534E-B3FB-4E64-9C8E-C2EFD5E1AA13}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MARIANO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Es la reflejancia ideal del techo: 70%</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
@@ -93,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="301">
   <si>
     <t xml:space="preserve">1.1) </t>
   </si>
@@ -958,15 +1006,82 @@
   <si>
     <t>Muros tipo 4C (enterrados o semienterrados)</t>
   </si>
+  <si>
+    <t>TIPO DE CIELO</t>
+  </si>
+  <si>
+    <t>[1]: Lima Metropolitana; [2]: otro lugar</t>
+  </si>
+  <si>
+    <t>NÚMERO DE VENTANAS</t>
+  </si>
+  <si>
+    <t>[1]: una ventana; [2]: dos ventanas</t>
+  </si>
+  <si>
+    <t>Ventana tipo (a)</t>
+  </si>
+  <si>
+    <t>L: ancho [m]=</t>
+  </si>
+  <si>
+    <t>H: alto [m]=</t>
+  </si>
+  <si>
+    <t>Z: alféizar [m]=</t>
+  </si>
+  <si>
+    <t>DISEÑO</t>
+  </si>
+  <si>
+    <t>D: distancia de la ventana al punto P [m]=</t>
+  </si>
+  <si>
+    <t>E: espesor de la pared de la ventana [m]=</t>
+  </si>
+  <si>
+    <t>altura del plano de trabajo [m]=</t>
+  </si>
+  <si>
+    <t>DIMENSIONAMIENTO DE LA HABITACIÓN</t>
+  </si>
+  <si>
+    <t>Lb: largo habit [m]=</t>
+  </si>
+  <si>
+    <t>Ab: ancho habit [m]=</t>
+  </si>
+  <si>
+    <t>Reflejancia de muro</t>
+  </si>
+  <si>
+    <t>Reflejancia de piso</t>
+  </si>
+  <si>
+    <t>Reflejancia de techo</t>
+  </si>
+  <si>
+    <t>Factor de mantenimiento</t>
+  </si>
+  <si>
+    <t>% del vano ocupado por la carpintería</t>
+  </si>
+  <si>
+    <t>% del vano ocupado por las obstrucciones</t>
+  </si>
+  <si>
+    <t>Transmitancia lumínica del vidrio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,8 +1253,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1272,8 +1400,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1561,12 +1701,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1758,6 +1925,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="24" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="24" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1785,10 +2014,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1" xr:uid="{CA90E7E1-4729-468B-B0E6-40F5ED3C237F}"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2402,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DABA7AB-2E09-4285-B659-D9F0D56E558C}">
   <dimension ref="A2:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2423,14 +2671,14 @@
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2803,14 +3051,14 @@
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
       <c r="H25" s="1"/>
       <c r="M25" s="14" t="s">
         <v>37</v>
@@ -2922,7 +3170,7 @@
       <c r="C37" s="48">
         <v>0.44</v>
       </c>
-      <c r="D37" s="79">
+      <c r="D37" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -2937,7 +3185,7 @@
       <c r="C38" s="48">
         <v>0.44</v>
       </c>
-      <c r="D38" s="80"/>
+      <c r="D38" s="96"/>
       <c r="O38" s="43" t="s">
         <v>110</v>
       </c>
@@ -2949,7 +3197,7 @@
       <c r="C39" s="48">
         <v>0.44</v>
       </c>
-      <c r="D39" s="81"/>
+      <c r="D39" s="97"/>
       <c r="O39" s="43" t="s">
         <v>111</v>
       </c>
@@ -3000,7 +3248,7 @@
       <c r="C45" s="49">
         <v>0.4</v>
       </c>
-      <c r="D45" s="79">
+      <c r="D45" s="95">
         <v>24.5</v>
       </c>
       <c r="O45" s="43" t="s">
@@ -3014,7 +3262,7 @@
       <c r="C46" s="49">
         <v>0.3</v>
       </c>
-      <c r="D46" s="80"/>
+      <c r="D46" s="96"/>
       <c r="O46" s="43" t="s">
         <v>117</v>
       </c>
@@ -3026,7 +3274,7 @@
       <c r="C47" s="49">
         <v>0.3</v>
       </c>
-      <c r="D47" s="81"/>
+      <c r="D47" s="97"/>
       <c r="O47" s="43" t="s">
         <v>118</v>
       </c>
@@ -3110,7 +3358,7 @@
       <c r="C57" s="45">
         <v>0.44</v>
       </c>
-      <c r="D57" s="79">
+      <c r="D57" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -3125,7 +3373,7 @@
       <c r="C58" s="45">
         <v>0.44</v>
       </c>
-      <c r="D58" s="80"/>
+      <c r="D58" s="96"/>
       <c r="O58" s="43" t="s">
         <v>129</v>
       </c>
@@ -3137,7 +3385,7 @@
       <c r="C59" s="45">
         <v>0.44</v>
       </c>
-      <c r="D59" s="81"/>
+      <c r="D59" s="97"/>
       <c r="O59" s="43" t="s">
         <v>130</v>
       </c>
@@ -3218,7 +3466,7 @@
       <c r="C69" s="45">
         <v>0.44</v>
       </c>
-      <c r="D69" s="79">
+      <c r="D69" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -3233,7 +3481,7 @@
       <c r="C70" s="45">
         <v>0.44</v>
       </c>
-      <c r="D70" s="80"/>
+      <c r="D70" s="96"/>
       <c r="O70" s="43" t="s">
         <v>141</v>
       </c>
@@ -3245,7 +3493,7 @@
       <c r="C71" s="45">
         <v>0.44</v>
       </c>
-      <c r="D71" s="81"/>
+      <c r="D71" s="97"/>
       <c r="O71" s="43" t="s">
         <v>142</v>
       </c>
@@ -3297,7 +3545,7 @@
       <c r="C77" s="48">
         <v>1</v>
       </c>
-      <c r="D77" s="79">
+      <c r="D77" s="95">
         <v>24.5</v>
       </c>
       <c r="O77" s="43" t="s">
@@ -3311,7 +3559,7 @@
       <c r="C78" s="48">
         <v>1</v>
       </c>
-      <c r="D78" s="80"/>
+      <c r="D78" s="96"/>
       <c r="O78" s="43" t="s">
         <v>149</v>
       </c>
@@ -3323,7 +3571,7 @@
       <c r="C79" s="48">
         <v>1</v>
       </c>
-      <c r="D79" s="81"/>
+      <c r="D79" s="97"/>
       <c r="O79" s="43" t="s">
         <v>150</v>
       </c>
@@ -3375,7 +3623,7 @@
       <c r="C85" s="48">
         <v>1</v>
       </c>
-      <c r="D85" s="79">
+      <c r="D85" s="95">
         <v>24.5</v>
       </c>
       <c r="O85" s="43" t="s">
@@ -3389,7 +3637,7 @@
       <c r="C86" s="48">
         <v>1</v>
       </c>
-      <c r="D86" s="80"/>
+      <c r="D86" s="96"/>
       <c r="O86" s="43" t="s">
         <v>157</v>
       </c>
@@ -3401,7 +3649,7 @@
       <c r="C87" s="48">
         <v>1</v>
       </c>
-      <c r="D87" s="81"/>
+      <c r="D87" s="97"/>
       <c r="O87" s="43" t="s">
         <v>158</v>
       </c>
@@ -3453,7 +3701,7 @@
       <c r="C93" s="48">
         <v>1</v>
       </c>
-      <c r="D93" s="79">
+      <c r="D93" s="95">
         <v>24.5</v>
       </c>
       <c r="O93" s="43" t="s">
@@ -3467,7 +3715,7 @@
       <c r="C94" s="48">
         <v>1</v>
       </c>
-      <c r="D94" s="80"/>
+      <c r="D94" s="96"/>
       <c r="O94" s="43" t="s">
         <v>165</v>
       </c>
@@ -3479,7 +3727,7 @@
       <c r="C95" s="48">
         <v>1</v>
       </c>
-      <c r="D95" s="81"/>
+      <c r="D95" s="97"/>
       <c r="O95" s="43" t="s">
         <v>166</v>
       </c>
@@ -3531,7 +3779,7 @@
       <c r="C101" s="48">
         <v>1</v>
       </c>
-      <c r="D101" s="79">
+      <c r="D101" s="95">
         <v>24.5</v>
       </c>
       <c r="O101" s="43" t="s">
@@ -3545,7 +3793,7 @@
       <c r="C102" s="48">
         <v>1</v>
       </c>
-      <c r="D102" s="80"/>
+      <c r="D102" s="96"/>
       <c r="O102" s="43" t="s">
         <v>173</v>
       </c>
@@ -3557,7 +3805,7 @@
       <c r="C103" s="48">
         <v>1</v>
       </c>
-      <c r="D103" s="81"/>
+      <c r="D103" s="97"/>
       <c r="O103" s="43" t="s">
         <v>174</v>
       </c>
@@ -3609,7 +3857,7 @@
       <c r="C109" s="48">
         <v>1</v>
       </c>
-      <c r="D109" s="79">
+      <c r="D109" s="95">
         <v>23.1</v>
       </c>
       <c r="O109" s="43" t="s">
@@ -3623,7 +3871,7 @@
       <c r="C110" s="48">
         <v>1</v>
       </c>
-      <c r="D110" s="80"/>
+      <c r="D110" s="96"/>
       <c r="O110" s="43" t="s">
         <v>181</v>
       </c>
@@ -3635,7 +3883,7 @@
       <c r="C111" s="48">
         <v>1</v>
       </c>
-      <c r="D111" s="81"/>
+      <c r="D111" s="97"/>
       <c r="O111" s="43" t="s">
         <v>182</v>
       </c>
@@ -3687,7 +3935,7 @@
       <c r="C117" s="48">
         <v>1</v>
       </c>
-      <c r="D117" s="79">
+      <c r="D117" s="95">
         <v>23.1</v>
       </c>
       <c r="O117" s="43" t="s">
@@ -3701,7 +3949,7 @@
       <c r="C118" s="48">
         <v>1</v>
       </c>
-      <c r="D118" s="80"/>
+      <c r="D118" s="96"/>
       <c r="O118" s="43" t="s">
         <v>189</v>
       </c>
@@ -3713,7 +3961,7 @@
       <c r="C119" s="48">
         <v>1</v>
       </c>
-      <c r="D119" s="81"/>
+      <c r="D119" s="97"/>
       <c r="O119" s="43" t="s">
         <v>190</v>
       </c>
@@ -3880,7 +4128,7 @@
       <c r="C137" s="48">
         <v>1</v>
       </c>
-      <c r="D137" s="79">
+      <c r="D137" s="95">
         <v>23.1</v>
       </c>
     </row>
@@ -3891,7 +4139,7 @@
       <c r="C138" s="48">
         <v>1</v>
       </c>
-      <c r="D138" s="80"/>
+      <c r="D138" s="96"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B139" s="35" t="s">
@@ -3900,20 +4148,20 @@
       <c r="C139" s="48">
         <v>1</v>
       </c>
-      <c r="D139" s="81"/>
+      <c r="D139" s="97"/>
     </row>
     <row r="142" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A142" s="78">
         <v>1.3</v>
       </c>
-      <c r="B142" s="82" t="s">
+      <c r="B142" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="C142" s="82"/>
-      <c r="D142" s="82"/>
-      <c r="E142" s="82"/>
-      <c r="F142" s="82"/>
-      <c r="G142" s="82"/>
+      <c r="C142" s="98"/>
+      <c r="D142" s="98"/>
+      <c r="E142" s="98"/>
+      <c r="F142" s="98"/>
+      <c r="G142" s="98"/>
     </row>
     <row r="144" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B144" s="33" t="s">
@@ -3971,7 +4219,7 @@
       <c r="C152" s="48">
         <v>0.44</v>
       </c>
-      <c r="D152" s="79">
+      <c r="D152" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -3983,7 +4231,7 @@
       <c r="C153" s="48">
         <v>0.44</v>
       </c>
-      <c r="D153" s="80"/>
+      <c r="D153" s="96"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="35" t="s">
@@ -3992,7 +4240,7 @@
       <c r="C154" s="48">
         <v>0.44</v>
       </c>
-      <c r="D154" s="81"/>
+      <c r="D154" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4062,28 +4310,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4460,14 +4708,14 @@
       <c r="A25" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
       <c r="H25" s="1"/>
       <c r="M25" s="14" t="s">
         <v>37</v>
@@ -4578,7 +4826,7 @@
       <c r="C37" s="48">
         <v>0.44</v>
       </c>
-      <c r="D37" s="79">
+      <c r="D37" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -4593,7 +4841,7 @@
       <c r="C38" s="48">
         <v>0.44</v>
       </c>
-      <c r="D38" s="80"/>
+      <c r="D38" s="96"/>
       <c r="O38" s="43" t="s">
         <v>110</v>
       </c>
@@ -4605,7 +4853,7 @@
       <c r="C39" s="48">
         <v>0.44</v>
       </c>
-      <c r="D39" s="81"/>
+      <c r="D39" s="97"/>
       <c r="O39" s="43" t="s">
         <v>111</v>
       </c>
@@ -4656,7 +4904,7 @@
       <c r="C45" s="48">
         <v>0.4</v>
       </c>
-      <c r="D45" s="79">
+      <c r="D45" s="95">
         <v>24.5</v>
       </c>
       <c r="O45" s="43" t="s">
@@ -4670,7 +4918,7 @@
       <c r="C46" s="48">
         <v>0.3</v>
       </c>
-      <c r="D46" s="80"/>
+      <c r="D46" s="96"/>
       <c r="O46" s="43" t="s">
         <v>117</v>
       </c>
@@ -4682,7 +4930,7 @@
       <c r="C47" s="48">
         <v>0.3</v>
       </c>
-      <c r="D47" s="81"/>
+      <c r="D47" s="97"/>
       <c r="O47" s="43" t="s">
         <v>118</v>
       </c>
@@ -4763,7 +5011,7 @@
       <c r="C57" s="48">
         <v>0.44</v>
       </c>
-      <c r="D57" s="79">
+      <c r="D57" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -4778,7 +5026,7 @@
       <c r="C58" s="48">
         <v>0.44</v>
       </c>
-      <c r="D58" s="80"/>
+      <c r="D58" s="96"/>
       <c r="O58" s="43" t="s">
         <v>129</v>
       </c>
@@ -4790,7 +5038,7 @@
       <c r="C59" s="48">
         <v>0.44</v>
       </c>
-      <c r="D59" s="81"/>
+      <c r="D59" s="97"/>
       <c r="O59" s="43" t="s">
         <v>130</v>
       </c>
@@ -4871,7 +5119,7 @@
       <c r="C69" s="48">
         <v>0.44</v>
       </c>
-      <c r="D69" s="79">
+      <c r="D69" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -4886,7 +5134,7 @@
       <c r="C70" s="48">
         <v>0.44</v>
       </c>
-      <c r="D70" s="80"/>
+      <c r="D70" s="96"/>
       <c r="O70" s="43" t="s">
         <v>141</v>
       </c>
@@ -4898,7 +5146,7 @@
       <c r="C71" s="48">
         <v>0.44</v>
       </c>
-      <c r="D71" s="81"/>
+      <c r="D71" s="97"/>
       <c r="O71" s="43" t="s">
         <v>142</v>
       </c>
@@ -4950,7 +5198,7 @@
       <c r="C77" s="48">
         <v>1</v>
       </c>
-      <c r="D77" s="79">
+      <c r="D77" s="95">
         <v>24.5</v>
       </c>
       <c r="O77" s="43" t="s">
@@ -4964,7 +5212,7 @@
       <c r="C78" s="48">
         <v>1</v>
       </c>
-      <c r="D78" s="80"/>
+      <c r="D78" s="96"/>
       <c r="O78" s="43" t="s">
         <v>149</v>
       </c>
@@ -4976,7 +5224,7 @@
       <c r="C79" s="48">
         <v>1</v>
       </c>
-      <c r="D79" s="81"/>
+      <c r="D79" s="97"/>
       <c r="O79" s="43" t="s">
         <v>150</v>
       </c>
@@ -5028,7 +5276,7 @@
       <c r="C85" s="48">
         <v>1</v>
       </c>
-      <c r="D85" s="79">
+      <c r="D85" s="95">
         <v>24.5</v>
       </c>
       <c r="O85" s="43" t="s">
@@ -5042,7 +5290,7 @@
       <c r="C86" s="48">
         <v>1</v>
       </c>
-      <c r="D86" s="80"/>
+      <c r="D86" s="96"/>
       <c r="O86" s="43" t="s">
         <v>157</v>
       </c>
@@ -5054,7 +5302,7 @@
       <c r="C87" s="48">
         <v>1</v>
       </c>
-      <c r="D87" s="81"/>
+      <c r="D87" s="97"/>
       <c r="O87" s="43" t="s">
         <v>158</v>
       </c>
@@ -5106,7 +5354,7 @@
       <c r="C93" s="48">
         <v>1</v>
       </c>
-      <c r="D93" s="79">
+      <c r="D93" s="95">
         <v>24.5</v>
       </c>
       <c r="O93" s="43" t="s">
@@ -5120,7 +5368,7 @@
       <c r="C94" s="48">
         <v>1</v>
       </c>
-      <c r="D94" s="80"/>
+      <c r="D94" s="96"/>
       <c r="O94" s="43" t="s">
         <v>165</v>
       </c>
@@ -5132,7 +5380,7 @@
       <c r="C95" s="48">
         <v>1</v>
       </c>
-      <c r="D95" s="81"/>
+      <c r="D95" s="97"/>
       <c r="O95" s="43" t="s">
         <v>166</v>
       </c>
@@ -5184,7 +5432,7 @@
       <c r="C101" s="48">
         <v>1</v>
       </c>
-      <c r="D101" s="79">
+      <c r="D101" s="95">
         <v>24.5</v>
       </c>
       <c r="O101" s="43" t="s">
@@ -5198,7 +5446,7 @@
       <c r="C102" s="48">
         <v>1</v>
       </c>
-      <c r="D102" s="80"/>
+      <c r="D102" s="96"/>
       <c r="O102" s="43" t="s">
         <v>173</v>
       </c>
@@ -5210,7 +5458,7 @@
       <c r="C103" s="48">
         <v>1</v>
       </c>
-      <c r="D103" s="81"/>
+      <c r="D103" s="97"/>
       <c r="O103" s="43" t="s">
         <v>174</v>
       </c>
@@ -5262,7 +5510,7 @@
       <c r="C109" s="48">
         <v>1</v>
       </c>
-      <c r="D109" s="79">
+      <c r="D109" s="95">
         <v>23.1</v>
       </c>
       <c r="O109" s="43" t="s">
@@ -5276,7 +5524,7 @@
       <c r="C110" s="48">
         <v>1</v>
       </c>
-      <c r="D110" s="80"/>
+      <c r="D110" s="96"/>
       <c r="O110" s="43" t="s">
         <v>181</v>
       </c>
@@ -5288,7 +5536,7 @@
       <c r="C111" s="48">
         <v>1</v>
       </c>
-      <c r="D111" s="81"/>
+      <c r="D111" s="97"/>
       <c r="O111" s="43" t="s">
         <v>182</v>
       </c>
@@ -5340,7 +5588,7 @@
       <c r="C117" s="48">
         <v>1</v>
       </c>
-      <c r="D117" s="79">
+      <c r="D117" s="95">
         <v>23.1</v>
       </c>
       <c r="O117" s="43" t="s">
@@ -5354,7 +5602,7 @@
       <c r="C118" s="48">
         <v>1</v>
       </c>
-      <c r="D118" s="80"/>
+      <c r="D118" s="96"/>
       <c r="O118" s="43" t="s">
         <v>189</v>
       </c>
@@ -5366,7 +5614,7 @@
       <c r="C119" s="48">
         <v>1</v>
       </c>
-      <c r="D119" s="81"/>
+      <c r="D119" s="97"/>
       <c r="O119" s="43" t="s">
         <v>190</v>
       </c>
@@ -5533,7 +5781,7 @@
       <c r="C137" s="48">
         <v>1</v>
       </c>
-      <c r="D137" s="79">
+      <c r="D137" s="95">
         <v>23.1</v>
       </c>
     </row>
@@ -5544,7 +5792,7 @@
       <c r="C138" s="48">
         <v>1</v>
       </c>
-      <c r="D138" s="80"/>
+      <c r="D138" s="96"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B139" s="35" t="s">
@@ -5553,20 +5801,20 @@
       <c r="C139" s="48">
         <v>1</v>
       </c>
-      <c r="D139" s="81"/>
+      <c r="D139" s="97"/>
     </row>
     <row r="142" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B142" s="82" t="s">
+      <c r="B142" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="C142" s="82"/>
-      <c r="D142" s="82"/>
-      <c r="E142" s="82"/>
-      <c r="F142" s="82"/>
-      <c r="G142" s="82"/>
+      <c r="C142" s="98"/>
+      <c r="D142" s="98"/>
+      <c r="E142" s="98"/>
+      <c r="F142" s="98"/>
+      <c r="G142" s="98"/>
     </row>
     <row r="144" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B144" s="33" t="s">
@@ -5627,7 +5875,7 @@
       <c r="C152" s="48">
         <v>0.44</v>
       </c>
-      <c r="D152" s="79">
+      <c r="D152" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -5639,7 +5887,7 @@
       <c r="C153" s="48">
         <v>0.44</v>
       </c>
-      <c r="D153" s="80"/>
+      <c r="D153" s="96"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="35" t="s">
@@ -5648,7 +5896,7 @@
       <c r="C154" s="48">
         <v>0.44</v>
       </c>
-      <c r="D154" s="81"/>
+      <c r="D154" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5722,14 +5970,14 @@
       <c r="A2" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
       <c r="L2" s="51" t="s">
         <v>15</v>
       </c>
@@ -6043,14 +6291,14 @@
       <c r="A16" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
       <c r="L16" s="55" t="s">
         <v>28</v>
       </c>
@@ -6205,14 +6453,14 @@
       <c r="A25" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
       <c r="L25" s="55" t="s">
         <v>37</v>
       </c>
@@ -6368,7 +6616,7 @@
       <c r="C34" s="48">
         <v>0.44</v>
       </c>
-      <c r="D34" s="79">
+      <c r="D34" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -6392,7 +6640,7 @@
       <c r="C35" s="48">
         <v>0.44</v>
       </c>
-      <c r="D35" s="80"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -6413,7 +6661,7 @@
       <c r="C36" s="48">
         <v>0.44</v>
       </c>
-      <c r="D36" s="81"/>
+      <c r="D36" s="97"/>
       <c r="E36" s="64"/>
       <c r="F36" s="64"/>
       <c r="G36" s="64"/>
@@ -6549,7 +6797,7 @@
       <c r="C44" s="48">
         <v>0.44</v>
       </c>
-      <c r="D44" s="79">
+      <c r="D44" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -6570,7 +6818,7 @@
       <c r="C45" s="48">
         <v>0.44</v>
       </c>
-      <c r="D45" s="80"/>
+      <c r="D45" s="96"/>
       <c r="L45" s="60" t="s">
         <v>99</v>
       </c>
@@ -6588,7 +6836,7 @@
       <c r="C46" s="48">
         <v>0.44</v>
       </c>
-      <c r="D46" s="81"/>
+      <c r="D46" s="97"/>
       <c r="L46" s="58" t="s">
         <v>100</v>
       </c>
@@ -6623,14 +6871,14 @@
       <c r="A49" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="B49" s="82" t="s">
+      <c r="B49" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
       <c r="L49" s="58" t="s">
         <v>103</v>
       </c>
@@ -6788,7 +7036,7 @@
       <c r="C58" s="69">
         <v>0.44</v>
       </c>
-      <c r="D58" s="79">
+      <c r="D58" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -6810,7 +7058,7 @@
       <c r="C59" s="69">
         <v>0.44</v>
       </c>
-      <c r="D59" s="80"/>
+      <c r="D59" s="96"/>
       <c r="E59" s="64"/>
       <c r="F59" s="64"/>
       <c r="G59" s="64"/>
@@ -6829,7 +7077,7 @@
       <c r="C60" s="69">
         <v>0.44</v>
       </c>
-      <c r="D60" s="81"/>
+      <c r="D60" s="97"/>
       <c r="E60" s="64"/>
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
@@ -6957,7 +7205,7 @@
       <c r="C68" s="69">
         <v>0.44</v>
       </c>
-      <c r="D68" s="79">
+      <c r="D68" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -6976,7 +7224,7 @@
       <c r="C69" s="69">
         <v>0.44</v>
       </c>
-      <c r="D69" s="80"/>
+      <c r="D69" s="96"/>
       <c r="L69" s="58" t="s">
         <v>122</v>
       </c>
@@ -6992,7 +7240,7 @@
       <c r="C70" s="69">
         <v>0.44</v>
       </c>
-      <c r="D70" s="81"/>
+      <c r="D70" s="97"/>
       <c r="L70" s="58" t="s">
         <v>123</v>
       </c>
@@ -7051,7 +7299,7 @@
       <c r="C74" s="69">
         <v>0.44</v>
       </c>
-      <c r="D74" s="79">
+      <c r="D74" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -7070,7 +7318,7 @@
       <c r="C75" s="69">
         <v>0.44</v>
       </c>
-      <c r="D75" s="80"/>
+      <c r="D75" s="96"/>
       <c r="L75" s="58" t="s">
         <v>128</v>
       </c>
@@ -7086,7 +7334,7 @@
       <c r="C76" s="69">
         <v>0.44</v>
       </c>
-      <c r="D76" s="81"/>
+      <c r="D76" s="97"/>
       <c r="L76" s="58" t="s">
         <v>129</v>
       </c>
@@ -7145,7 +7393,7 @@
       <c r="C80" s="69">
         <v>0.44</v>
       </c>
-      <c r="D80" s="79">
+      <c r="D80" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -7164,7 +7412,7 @@
       <c r="C81" s="69">
         <v>0.44</v>
       </c>
-      <c r="D81" s="80"/>
+      <c r="D81" s="96"/>
       <c r="L81" s="58" t="s">
         <v>134</v>
       </c>
@@ -7180,7 +7428,7 @@
       <c r="C82" s="48">
         <v>0.44</v>
       </c>
-      <c r="D82" s="81"/>
+      <c r="D82" s="97"/>
       <c r="L82" s="58" t="s">
         <v>135</v>
       </c>
@@ -7865,14 +8113,14 @@
       <c r="A2" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="98" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="64"/>
@@ -7967,7 +8215,7 @@
       <c r="C11" s="48">
         <v>0.44</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -7982,7 +8230,7 @@
       <c r="C12" s="48">
         <v>0.44</v>
       </c>
-      <c r="D12" s="80"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
       <c r="G12" s="64"/>
@@ -7994,7 +8242,7 @@
       <c r="C13" s="48">
         <v>0.44</v>
       </c>
-      <c r="D13" s="81"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
       <c r="G13" s="64"/>
@@ -8058,7 +8306,7 @@
       <c r="C21" s="48">
         <v>0.44</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -8070,7 +8318,7 @@
       <c r="C22" s="48">
         <v>0.44</v>
       </c>
-      <c r="D22" s="80"/>
+      <c r="D22" s="96"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="75" t="s">
@@ -8079,20 +8327,20 @@
       <c r="C23" s="48">
         <v>0.44</v>
       </c>
-      <c r="D23" s="81"/>
+      <c r="D23" s="97"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="98" t="s">
         <v>276</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="64"/>
@@ -8193,7 +8441,7 @@
       <c r="C39" s="48">
         <v>0.44</v>
       </c>
-      <c r="D39" s="79">
+      <c r="D39" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -8205,7 +8453,7 @@
       <c r="C40" s="48">
         <v>0.44</v>
       </c>
-      <c r="D40" s="80"/>
+      <c r="D40" s="96"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="75" t="s">
@@ -8214,20 +8462,20 @@
       <c r="C41" s="48">
         <v>0.44</v>
       </c>
-      <c r="D41" s="81"/>
+      <c r="D41" s="97"/>
     </row>
     <row r="44" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="98" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="67" t="s">
@@ -8267,7 +8515,7 @@
       <c r="C51" s="48">
         <v>0.44</v>
       </c>
-      <c r="D51" s="79">
+      <c r="D51" s="95">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -8279,7 +8527,7 @@
       <c r="C52" s="48">
         <v>0.44</v>
       </c>
-      <c r="D52" s="80"/>
+      <c r="D52" s="96"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="75" t="s">
@@ -8288,7 +8536,7 @@
       <c r="C53" s="48">
         <v>0.44</v>
       </c>
-      <c r="D53" s="81"/>
+      <c r="D53" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8333,10 +8581,10 @@
   <sheetData>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="32">
         <v>7</v>
       </c>
@@ -8348,10 +8596,10 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="29" t="s">
         <v>68</v>
       </c>
@@ -8495,14 +8743,243 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3C697E-ABEF-4667-98F4-0971D011D4CA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3C697E-ABEF-4667-98F4-0971D011D4CA}">
+  <dimension ref="B4:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="E4" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="105"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="107" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="E5" s="82" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="79"/>
+      <c r="C6" s="80">
+        <v>1</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="86">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="E7" s="82" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="86">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="104" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="108"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="79"/>
+      <c r="C10" s="80">
+        <v>2</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" s="106"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="E11" s="82" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="104" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="105"/>
+      <c r="E12" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="82" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="83">
+        <v>5.5</v>
+      </c>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="82" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="84">
+        <v>2</v>
+      </c>
+      <c r="E14" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="91">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="85">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="92">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="E16" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" s="91">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="104" t="str">
+        <f>IF(C10=1,"","Ventana tipo (b)")</f>
+        <v>Ventana tipo (b)</v>
+      </c>
+      <c r="C17" s="105"/>
+      <c r="E17" s="90" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="93">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="82" t="str">
+        <f>IF(C10=1,"","L1: ancho [m]=")</f>
+        <v>L1: ancho [m]=</v>
+      </c>
+      <c r="C18" s="83">
+        <v>4.5</v>
+      </c>
+      <c r="E18" s="90" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="92">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="82" t="str">
+        <f>IF(C10=1,"","H1: alto [m]=")</f>
+        <v>H1: alto [m]=</v>
+      </c>
+      <c r="C19" s="84">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="90" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" s="92">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="82" t="str">
+        <f>IF(C10=1,"","Z1: alféizar [m]=")</f>
+        <v>Z1: alféizar [m]=</v>
+      </c>
+      <c r="C20" s="85">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="92">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{0422A868-B710-447C-9916-240F48F21084}">
+      <formula1>1</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="sólo para 1 ó 2 ventanas" sqref="C10" xr:uid="{3D07A15E-54E6-4E53-A1F1-20483E4D643E}">
+      <formula1>1</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14" xr:uid="{C54F6871-4C55-438C-AB04-D617430A397A}">
+      <formula1>0.5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8579,21 +9056,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BC8D1A6D9755BA4DACDC023AEE321D58" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8407c33dbc57c22b02890f9ab05f88f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cec9201-ec77-4532-add3-9cf0afa67a3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="414e73d62fa2934c35f1272b2dae311a" ns3:_="">
     <xsd:import namespace="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
@@ -8739,31 +9201,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742AAA9-DDA3-4D79-8010-354B400D5BEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB979463-6A6C-4761-86FC-11C8EC0FC4C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8779,4 +9232,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742AAA9-DDA3-4D79-8010-354B400D5BEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/trydoc.xlsx
+++ b/trydoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpringProjects\spring-arquitectura-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A44A5D-6C4B-4AEC-9B46-84CED741AD39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA2D896-D846-41B5-ABF4-E77A03C50EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
+    <workbookView xWindow="-6255" yWindow="4425" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Form-Envolvente-1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="302">
   <si>
     <t xml:space="preserve">1.1) </t>
   </si>
@@ -1072,6 +1072,32 @@
   <si>
     <t>Transmitancia lumínica del vidrio</t>
   </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ext</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [luxes] </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1081,7 +1107,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,6 +1290,14 @@
       <b/>
       <sz val="10"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1733,7 +1767,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2032,6 +2066,14 @@
     <xf numFmtId="0" fontId="8" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2055,6 +2097,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="37 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD336A2-D8C3-4465-8E05-15A0A35814C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="1000125"/>
+          <a:ext cx="1933575" cy="1918608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4244,12 +4341,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D57:D59"/>
     <mergeCell ref="D117:D119"/>
     <mergeCell ref="D137:D139"/>
     <mergeCell ref="B142:G142"/>
@@ -4259,6 +4350,12 @@
     <mergeCell ref="D93:D95"/>
     <mergeCell ref="D101:D103"/>
     <mergeCell ref="D109:D111"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D57:D59"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B23" xr:uid="{DF06D1ED-5973-4F52-9D1D-25867230B13C}">
@@ -5900,12 +5997,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D45:D47"/>
     <mergeCell ref="D117:D119"/>
     <mergeCell ref="D137:D139"/>
     <mergeCell ref="B142:G142"/>
@@ -5916,6 +6007,12 @@
     <mergeCell ref="D93:D95"/>
     <mergeCell ref="D101:D103"/>
     <mergeCell ref="D109:D111"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D45:D47"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B23" xr:uid="{5F032077-0F11-4022-B12C-DE4FE12F1034}">
@@ -8051,16 +8148,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D58:D60"/>
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="D74:D76"/>
     <mergeCell ref="D80:D82"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D58:D60"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B13" xr:uid="{5FEB7208-9EC2-4939-A7BD-9E91958F93F6}">
@@ -8744,10 +8841,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3C697E-ABEF-4667-98F4-0971D011D4CA}">
-  <dimension ref="B4:F20"/>
+  <dimension ref="B4:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8756,7 +8853,7 @@
     <col min="5" max="5" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="104" t="s">
         <v>279</v>
       </c>
@@ -8765,8 +8862,14 @@
         <v>287</v>
       </c>
       <c r="F4" s="105"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="109" t="s">
+        <v>301</v>
+      </c>
+      <c r="I4" s="110">
+        <v>12026</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
         <v>280</v>
       </c>
@@ -8778,7 +8881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="79"/>
       <c r="C6" s="80">
         <v>1</v>
@@ -8790,7 +8893,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="81"/>
       <c r="C7" s="81"/>
       <c r="E7" s="82" t="s">
@@ -8800,7 +8903,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>281</v>
       </c>
@@ -8808,7 +8911,7 @@
       <c r="E8" s="87"/>
       <c r="F8" s="88"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="107" t="s">
         <v>282</v>
       </c>
@@ -8816,7 +8919,7 @@
       <c r="E9" s="81"/>
       <c r="F9" s="81"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="79"/>
       <c r="C10" s="80">
         <v>2</v>
@@ -8826,7 +8929,7 @@
       </c>
       <c r="F10" s="106"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="81"/>
       <c r="C11" s="81"/>
       <c r="E11" s="82" t="s">
@@ -8836,7 +8939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>283</v>
       </c>
@@ -8848,7 +8951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="82" t="s">
         <v>284</v>
       </c>
@@ -8858,7 +8961,7 @@
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="82" t="s">
         <v>285</v>
       </c>
@@ -8872,7 +8975,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="82" t="s">
         <v>286</v>
       </c>
@@ -8886,7 +8989,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
       <c r="E16" s="90" t="s">
@@ -8979,7 +9082,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9202,18 +9306,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9235,14 +9339,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742AAA9-DDA3-4D79-8010-354B400D5BEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -9256,4 +9352,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/trydoc.xlsx
+++ b/trydoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpringProjects\spring-arquitectura-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA2D896-D846-41B5-ABF4-E77A03C50EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B2BDBD-FB4D-46D6-B675-A8BB1010CE12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6255" yWindow="4425" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Form-Envolvente-1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="303">
   <si>
     <t xml:space="preserve">1.1) </t>
   </si>
@@ -1097,6 +1097,9 @@
       </rPr>
       <t xml:space="preserve"> [luxes] </t>
     </r>
+  </si>
+  <si>
+    <t>Iluminancia del Ambiente [luxes]</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1304,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1443,6 +1446,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,7 +1776,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1959,19 +1968,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1989,23 +1988,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="24" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -2013,14 +1996,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="24" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2060,17 +2044,47 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="25" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -2137,6 +2151,218 @@
         <a:xfrm>
           <a:off x="7639050" y="1000125"/>
           <a:ext cx="1933575" cy="1918608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>574832</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>178307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="39 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78754FEE-E88B-4CC4-B677-DD9FF8386034}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="2475" b="73008"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="542925" y="5010150"/>
+          <a:ext cx="2965607" cy="8350757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1362</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595697</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>187833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="40 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F31DF68-5E73-44BA-8203-24CC89153AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="26955" r="2475" b="46140"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3697062" y="5021037"/>
+          <a:ext cx="2975585" cy="8349396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15422</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>686412</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>187689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="41 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E5FE0A-38BE-4E90-AE8A-C20C91EE501C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="53823" r="2475" b="22626"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6854372" y="5020893"/>
+          <a:ext cx="2956990" cy="8349396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>96612</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>32076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1972</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>189972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="42 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55EA7EA7-D984-497A-9DC7-A91676332631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="77372" r="2475"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9983562" y="5023176"/>
+          <a:ext cx="2953360" cy="8349396"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2768,14 +2994,14 @@
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3148,14 +3374,14 @@
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="1"/>
       <c r="M25" s="14" t="s">
         <v>37</v>
@@ -3267,7 +3493,7 @@
       <c r="C37" s="48">
         <v>0.44</v>
       </c>
-      <c r="D37" s="95">
+      <c r="D37" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -3282,7 +3508,7 @@
       <c r="C38" s="48">
         <v>0.44</v>
       </c>
-      <c r="D38" s="96"/>
+      <c r="D38" s="90"/>
       <c r="O38" s="43" t="s">
         <v>110</v>
       </c>
@@ -3294,7 +3520,7 @@
       <c r="C39" s="48">
         <v>0.44</v>
       </c>
-      <c r="D39" s="97"/>
+      <c r="D39" s="91"/>
       <c r="O39" s="43" t="s">
         <v>111</v>
       </c>
@@ -3345,7 +3571,7 @@
       <c r="C45" s="49">
         <v>0.4</v>
       </c>
-      <c r="D45" s="95">
+      <c r="D45" s="89">
         <v>24.5</v>
       </c>
       <c r="O45" s="43" t="s">
@@ -3359,7 +3585,7 @@
       <c r="C46" s="49">
         <v>0.3</v>
       </c>
-      <c r="D46" s="96"/>
+      <c r="D46" s="90"/>
       <c r="O46" s="43" t="s">
         <v>117</v>
       </c>
@@ -3371,7 +3597,7 @@
       <c r="C47" s="49">
         <v>0.3</v>
       </c>
-      <c r="D47" s="97"/>
+      <c r="D47" s="91"/>
       <c r="O47" s="43" t="s">
         <v>118</v>
       </c>
@@ -3455,7 +3681,7 @@
       <c r="C57" s="45">
         <v>0.44</v>
       </c>
-      <c r="D57" s="95">
+      <c r="D57" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -3470,7 +3696,7 @@
       <c r="C58" s="45">
         <v>0.44</v>
       </c>
-      <c r="D58" s="96"/>
+      <c r="D58" s="90"/>
       <c r="O58" s="43" t="s">
         <v>129</v>
       </c>
@@ -3482,7 +3708,7 @@
       <c r="C59" s="45">
         <v>0.44</v>
       </c>
-      <c r="D59" s="97"/>
+      <c r="D59" s="91"/>
       <c r="O59" s="43" t="s">
         <v>130</v>
       </c>
@@ -3563,7 +3789,7 @@
       <c r="C69" s="45">
         <v>0.44</v>
       </c>
-      <c r="D69" s="95">
+      <c r="D69" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -3578,7 +3804,7 @@
       <c r="C70" s="45">
         <v>0.44</v>
       </c>
-      <c r="D70" s="96"/>
+      <c r="D70" s="90"/>
       <c r="O70" s="43" t="s">
         <v>141</v>
       </c>
@@ -3590,7 +3816,7 @@
       <c r="C71" s="45">
         <v>0.44</v>
       </c>
-      <c r="D71" s="97"/>
+      <c r="D71" s="91"/>
       <c r="O71" s="43" t="s">
         <v>142</v>
       </c>
@@ -3642,7 +3868,7 @@
       <c r="C77" s="48">
         <v>1</v>
       </c>
-      <c r="D77" s="95">
+      <c r="D77" s="89">
         <v>24.5</v>
       </c>
       <c r="O77" s="43" t="s">
@@ -3656,7 +3882,7 @@
       <c r="C78" s="48">
         <v>1</v>
       </c>
-      <c r="D78" s="96"/>
+      <c r="D78" s="90"/>
       <c r="O78" s="43" t="s">
         <v>149</v>
       </c>
@@ -3668,7 +3894,7 @@
       <c r="C79" s="48">
         <v>1</v>
       </c>
-      <c r="D79" s="97"/>
+      <c r="D79" s="91"/>
       <c r="O79" s="43" t="s">
         <v>150</v>
       </c>
@@ -3720,7 +3946,7 @@
       <c r="C85" s="48">
         <v>1</v>
       </c>
-      <c r="D85" s="95">
+      <c r="D85" s="89">
         <v>24.5</v>
       </c>
       <c r="O85" s="43" t="s">
@@ -3734,7 +3960,7 @@
       <c r="C86" s="48">
         <v>1</v>
       </c>
-      <c r="D86" s="96"/>
+      <c r="D86" s="90"/>
       <c r="O86" s="43" t="s">
         <v>157</v>
       </c>
@@ -3746,7 +3972,7 @@
       <c r="C87" s="48">
         <v>1</v>
       </c>
-      <c r="D87" s="97"/>
+      <c r="D87" s="91"/>
       <c r="O87" s="43" t="s">
         <v>158</v>
       </c>
@@ -3798,7 +4024,7 @@
       <c r="C93" s="48">
         <v>1</v>
       </c>
-      <c r="D93" s="95">
+      <c r="D93" s="89">
         <v>24.5</v>
       </c>
       <c r="O93" s="43" t="s">
@@ -3812,7 +4038,7 @@
       <c r="C94" s="48">
         <v>1</v>
       </c>
-      <c r="D94" s="96"/>
+      <c r="D94" s="90"/>
       <c r="O94" s="43" t="s">
         <v>165</v>
       </c>
@@ -3824,7 +4050,7 @@
       <c r="C95" s="48">
         <v>1</v>
       </c>
-      <c r="D95" s="97"/>
+      <c r="D95" s="91"/>
       <c r="O95" s="43" t="s">
         <v>166</v>
       </c>
@@ -3876,7 +4102,7 @@
       <c r="C101" s="48">
         <v>1</v>
       </c>
-      <c r="D101" s="95">
+      <c r="D101" s="89">
         <v>24.5</v>
       </c>
       <c r="O101" s="43" t="s">
@@ -3890,7 +4116,7 @@
       <c r="C102" s="48">
         <v>1</v>
       </c>
-      <c r="D102" s="96"/>
+      <c r="D102" s="90"/>
       <c r="O102" s="43" t="s">
         <v>173</v>
       </c>
@@ -3902,7 +4128,7 @@
       <c r="C103" s="48">
         <v>1</v>
       </c>
-      <c r="D103" s="97"/>
+      <c r="D103" s="91"/>
       <c r="O103" s="43" t="s">
         <v>174</v>
       </c>
@@ -3954,7 +4180,7 @@
       <c r="C109" s="48">
         <v>1</v>
       </c>
-      <c r="D109" s="95">
+      <c r="D109" s="89">
         <v>23.1</v>
       </c>
       <c r="O109" s="43" t="s">
@@ -3968,7 +4194,7 @@
       <c r="C110" s="48">
         <v>1</v>
       </c>
-      <c r="D110" s="96"/>
+      <c r="D110" s="90"/>
       <c r="O110" s="43" t="s">
         <v>181</v>
       </c>
@@ -3980,7 +4206,7 @@
       <c r="C111" s="48">
         <v>1</v>
       </c>
-      <c r="D111" s="97"/>
+      <c r="D111" s="91"/>
       <c r="O111" s="43" t="s">
         <v>182</v>
       </c>
@@ -4032,7 +4258,7 @@
       <c r="C117" s="48">
         <v>1</v>
       </c>
-      <c r="D117" s="95">
+      <c r="D117" s="89">
         <v>23.1</v>
       </c>
       <c r="O117" s="43" t="s">
@@ -4046,7 +4272,7 @@
       <c r="C118" s="48">
         <v>1</v>
       </c>
-      <c r="D118" s="96"/>
+      <c r="D118" s="90"/>
       <c r="O118" s="43" t="s">
         <v>189</v>
       </c>
@@ -4058,7 +4284,7 @@
       <c r="C119" s="48">
         <v>1</v>
       </c>
-      <c r="D119" s="97"/>
+      <c r="D119" s="91"/>
       <c r="O119" s="43" t="s">
         <v>190</v>
       </c>
@@ -4225,7 +4451,7 @@
       <c r="C137" s="48">
         <v>1</v>
       </c>
-      <c r="D137" s="95">
+      <c r="D137" s="89">
         <v>23.1</v>
       </c>
     </row>
@@ -4236,7 +4462,7 @@
       <c r="C138" s="48">
         <v>1</v>
       </c>
-      <c r="D138" s="96"/>
+      <c r="D138" s="90"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B139" s="35" t="s">
@@ -4245,20 +4471,20 @@
       <c r="C139" s="48">
         <v>1</v>
       </c>
-      <c r="D139" s="97"/>
+      <c r="D139" s="91"/>
     </row>
     <row r="142" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A142" s="78">
         <v>1.3</v>
       </c>
-      <c r="B142" s="98" t="s">
+      <c r="B142" s="92" t="s">
         <v>269</v>
       </c>
-      <c r="C142" s="98"/>
-      <c r="D142" s="98"/>
-      <c r="E142" s="98"/>
-      <c r="F142" s="98"/>
-      <c r="G142" s="98"/>
+      <c r="C142" s="92"/>
+      <c r="D142" s="92"/>
+      <c r="E142" s="92"/>
+      <c r="F142" s="92"/>
+      <c r="G142" s="92"/>
     </row>
     <row r="144" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B144" s="33" t="s">
@@ -4316,7 +4542,7 @@
       <c r="C152" s="48">
         <v>0.44</v>
       </c>
-      <c r="D152" s="95">
+      <c r="D152" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -4328,7 +4554,7 @@
       <c r="C153" s="48">
         <v>0.44</v>
       </c>
-      <c r="D153" s="96"/>
+      <c r="D153" s="90"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="35" t="s">
@@ -4337,7 +4563,7 @@
       <c r="C154" s="48">
         <v>0.44</v>
       </c>
-      <c r="D154" s="97"/>
+      <c r="D154" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4407,28 +4633,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4805,14 +5031,14 @@
       <c r="A25" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="1"/>
       <c r="M25" s="14" t="s">
         <v>37</v>
@@ -4923,7 +5149,7 @@
       <c r="C37" s="48">
         <v>0.44</v>
       </c>
-      <c r="D37" s="95">
+      <c r="D37" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -4938,7 +5164,7 @@
       <c r="C38" s="48">
         <v>0.44</v>
       </c>
-      <c r="D38" s="96"/>
+      <c r="D38" s="90"/>
       <c r="O38" s="43" t="s">
         <v>110</v>
       </c>
@@ -4950,7 +5176,7 @@
       <c r="C39" s="48">
         <v>0.44</v>
       </c>
-      <c r="D39" s="97"/>
+      <c r="D39" s="91"/>
       <c r="O39" s="43" t="s">
         <v>111</v>
       </c>
@@ -5001,7 +5227,7 @@
       <c r="C45" s="48">
         <v>0.4</v>
       </c>
-      <c r="D45" s="95">
+      <c r="D45" s="89">
         <v>24.5</v>
       </c>
       <c r="O45" s="43" t="s">
@@ -5015,7 +5241,7 @@
       <c r="C46" s="48">
         <v>0.3</v>
       </c>
-      <c r="D46" s="96"/>
+      <c r="D46" s="90"/>
       <c r="O46" s="43" t="s">
         <v>117</v>
       </c>
@@ -5027,7 +5253,7 @@
       <c r="C47" s="48">
         <v>0.3</v>
       </c>
-      <c r="D47" s="97"/>
+      <c r="D47" s="91"/>
       <c r="O47" s="43" t="s">
         <v>118</v>
       </c>
@@ -5108,7 +5334,7 @@
       <c r="C57" s="48">
         <v>0.44</v>
       </c>
-      <c r="D57" s="95">
+      <c r="D57" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -5123,7 +5349,7 @@
       <c r="C58" s="48">
         <v>0.44</v>
       </c>
-      <c r="D58" s="96"/>
+      <c r="D58" s="90"/>
       <c r="O58" s="43" t="s">
         <v>129</v>
       </c>
@@ -5135,7 +5361,7 @@
       <c r="C59" s="48">
         <v>0.44</v>
       </c>
-      <c r="D59" s="97"/>
+      <c r="D59" s="91"/>
       <c r="O59" s="43" t="s">
         <v>130</v>
       </c>
@@ -5216,7 +5442,7 @@
       <c r="C69" s="48">
         <v>0.44</v>
       </c>
-      <c r="D69" s="95">
+      <c r="D69" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -5231,7 +5457,7 @@
       <c r="C70" s="48">
         <v>0.44</v>
       </c>
-      <c r="D70" s="96"/>
+      <c r="D70" s="90"/>
       <c r="O70" s="43" t="s">
         <v>141</v>
       </c>
@@ -5243,7 +5469,7 @@
       <c r="C71" s="48">
         <v>0.44</v>
       </c>
-      <c r="D71" s="97"/>
+      <c r="D71" s="91"/>
       <c r="O71" s="43" t="s">
         <v>142</v>
       </c>
@@ -5295,7 +5521,7 @@
       <c r="C77" s="48">
         <v>1</v>
       </c>
-      <c r="D77" s="95">
+      <c r="D77" s="89">
         <v>24.5</v>
       </c>
       <c r="O77" s="43" t="s">
@@ -5309,7 +5535,7 @@
       <c r="C78" s="48">
         <v>1</v>
       </c>
-      <c r="D78" s="96"/>
+      <c r="D78" s="90"/>
       <c r="O78" s="43" t="s">
         <v>149</v>
       </c>
@@ -5321,7 +5547,7 @@
       <c r="C79" s="48">
         <v>1</v>
       </c>
-      <c r="D79" s="97"/>
+      <c r="D79" s="91"/>
       <c r="O79" s="43" t="s">
         <v>150</v>
       </c>
@@ -5373,7 +5599,7 @@
       <c r="C85" s="48">
         <v>1</v>
       </c>
-      <c r="D85" s="95">
+      <c r="D85" s="89">
         <v>24.5</v>
       </c>
       <c r="O85" s="43" t="s">
@@ -5387,7 +5613,7 @@
       <c r="C86" s="48">
         <v>1</v>
       </c>
-      <c r="D86" s="96"/>
+      <c r="D86" s="90"/>
       <c r="O86" s="43" t="s">
         <v>157</v>
       </c>
@@ -5399,7 +5625,7 @@
       <c r="C87" s="48">
         <v>1</v>
       </c>
-      <c r="D87" s="97"/>
+      <c r="D87" s="91"/>
       <c r="O87" s="43" t="s">
         <v>158</v>
       </c>
@@ -5451,7 +5677,7 @@
       <c r="C93" s="48">
         <v>1</v>
       </c>
-      <c r="D93" s="95">
+      <c r="D93" s="89">
         <v>24.5</v>
       </c>
       <c r="O93" s="43" t="s">
@@ -5465,7 +5691,7 @@
       <c r="C94" s="48">
         <v>1</v>
       </c>
-      <c r="D94" s="96"/>
+      <c r="D94" s="90"/>
       <c r="O94" s="43" t="s">
         <v>165</v>
       </c>
@@ -5477,7 +5703,7 @@
       <c r="C95" s="48">
         <v>1</v>
       </c>
-      <c r="D95" s="97"/>
+      <c r="D95" s="91"/>
       <c r="O95" s="43" t="s">
         <v>166</v>
       </c>
@@ -5529,7 +5755,7 @@
       <c r="C101" s="48">
         <v>1</v>
       </c>
-      <c r="D101" s="95">
+      <c r="D101" s="89">
         <v>24.5</v>
       </c>
       <c r="O101" s="43" t="s">
@@ -5543,7 +5769,7 @@
       <c r="C102" s="48">
         <v>1</v>
       </c>
-      <c r="D102" s="96"/>
+      <c r="D102" s="90"/>
       <c r="O102" s="43" t="s">
         <v>173</v>
       </c>
@@ -5555,7 +5781,7 @@
       <c r="C103" s="48">
         <v>1</v>
       </c>
-      <c r="D103" s="97"/>
+      <c r="D103" s="91"/>
       <c r="O103" s="43" t="s">
         <v>174</v>
       </c>
@@ -5607,7 +5833,7 @@
       <c r="C109" s="48">
         <v>1</v>
       </c>
-      <c r="D109" s="95">
+      <c r="D109" s="89">
         <v>23.1</v>
       </c>
       <c r="O109" s="43" t="s">
@@ -5621,7 +5847,7 @@
       <c r="C110" s="48">
         <v>1</v>
       </c>
-      <c r="D110" s="96"/>
+      <c r="D110" s="90"/>
       <c r="O110" s="43" t="s">
         <v>181</v>
       </c>
@@ -5633,7 +5859,7 @@
       <c r="C111" s="48">
         <v>1</v>
       </c>
-      <c r="D111" s="97"/>
+      <c r="D111" s="91"/>
       <c r="O111" s="43" t="s">
         <v>182</v>
       </c>
@@ -5685,7 +5911,7 @@
       <c r="C117" s="48">
         <v>1</v>
       </c>
-      <c r="D117" s="95">
+      <c r="D117" s="89">
         <v>23.1</v>
       </c>
       <c r="O117" s="43" t="s">
@@ -5699,7 +5925,7 @@
       <c r="C118" s="48">
         <v>1</v>
       </c>
-      <c r="D118" s="96"/>
+      <c r="D118" s="90"/>
       <c r="O118" s="43" t="s">
         <v>189</v>
       </c>
@@ -5711,7 +5937,7 @@
       <c r="C119" s="48">
         <v>1</v>
       </c>
-      <c r="D119" s="97"/>
+      <c r="D119" s="91"/>
       <c r="O119" s="43" t="s">
         <v>190</v>
       </c>
@@ -5878,7 +6104,7 @@
       <c r="C137" s="48">
         <v>1</v>
       </c>
-      <c r="D137" s="95">
+      <c r="D137" s="89">
         <v>23.1</v>
       </c>
     </row>
@@ -5889,7 +6115,7 @@
       <c r="C138" s="48">
         <v>1</v>
       </c>
-      <c r="D138" s="96"/>
+      <c r="D138" s="90"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B139" s="35" t="s">
@@ -5898,20 +6124,20 @@
       <c r="C139" s="48">
         <v>1</v>
       </c>
-      <c r="D139" s="97"/>
+      <c r="D139" s="91"/>
     </row>
     <row r="142" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B142" s="98" t="s">
+      <c r="B142" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="C142" s="98"/>
-      <c r="D142" s="98"/>
-      <c r="E142" s="98"/>
-      <c r="F142" s="98"/>
-      <c r="G142" s="98"/>
+      <c r="C142" s="92"/>
+      <c r="D142" s="92"/>
+      <c r="E142" s="92"/>
+      <c r="F142" s="92"/>
+      <c r="G142" s="92"/>
     </row>
     <row r="144" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B144" s="33" t="s">
@@ -5972,7 +6198,7 @@
       <c r="C152" s="48">
         <v>0.44</v>
       </c>
-      <c r="D152" s="95">
+      <c r="D152" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -5984,7 +6210,7 @@
       <c r="C153" s="48">
         <v>0.44</v>
       </c>
-      <c r="D153" s="96"/>
+      <c r="D153" s="90"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="35" t="s">
@@ -5993,7 +6219,7 @@
       <c r="C154" s="48">
         <v>0.44</v>
       </c>
-      <c r="D154" s="97"/>
+      <c r="D154" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6067,14 +6293,14 @@
       <c r="A2" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
       <c r="L2" s="51" t="s">
         <v>15</v>
       </c>
@@ -6388,14 +6614,14 @@
       <c r="A16" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
       <c r="L16" s="55" t="s">
         <v>28</v>
       </c>
@@ -6550,14 +6776,14 @@
       <c r="A25" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
       <c r="L25" s="55" t="s">
         <v>37</v>
       </c>
@@ -6713,7 +6939,7 @@
       <c r="C34" s="48">
         <v>0.44</v>
       </c>
-      <c r="D34" s="95">
+      <c r="D34" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -6737,7 +6963,7 @@
       <c r="C35" s="48">
         <v>0.44</v>
       </c>
-      <c r="D35" s="96"/>
+      <c r="D35" s="90"/>
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -6758,7 +6984,7 @@
       <c r="C36" s="48">
         <v>0.44</v>
       </c>
-      <c r="D36" s="97"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="64"/>
       <c r="F36" s="64"/>
       <c r="G36" s="64"/>
@@ -6894,7 +7120,7 @@
       <c r="C44" s="48">
         <v>0.44</v>
       </c>
-      <c r="D44" s="95">
+      <c r="D44" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -6915,7 +7141,7 @@
       <c r="C45" s="48">
         <v>0.44</v>
       </c>
-      <c r="D45" s="96"/>
+      <c r="D45" s="90"/>
       <c r="L45" s="60" t="s">
         <v>99</v>
       </c>
@@ -6933,7 +7159,7 @@
       <c r="C46" s="48">
         <v>0.44</v>
       </c>
-      <c r="D46" s="97"/>
+      <c r="D46" s="91"/>
       <c r="L46" s="58" t="s">
         <v>100</v>
       </c>
@@ -6968,14 +7194,14 @@
       <c r="A49" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
       <c r="L49" s="58" t="s">
         <v>103</v>
       </c>
@@ -7133,7 +7359,7 @@
       <c r="C58" s="69">
         <v>0.44</v>
       </c>
-      <c r="D58" s="95">
+      <c r="D58" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -7155,7 +7381,7 @@
       <c r="C59" s="69">
         <v>0.44</v>
       </c>
-      <c r="D59" s="96"/>
+      <c r="D59" s="90"/>
       <c r="E59" s="64"/>
       <c r="F59" s="64"/>
       <c r="G59" s="64"/>
@@ -7174,7 +7400,7 @@
       <c r="C60" s="69">
         <v>0.44</v>
       </c>
-      <c r="D60" s="97"/>
+      <c r="D60" s="91"/>
       <c r="E60" s="64"/>
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
@@ -7302,7 +7528,7 @@
       <c r="C68" s="69">
         <v>0.44</v>
       </c>
-      <c r="D68" s="95">
+      <c r="D68" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -7321,7 +7547,7 @@
       <c r="C69" s="69">
         <v>0.44</v>
       </c>
-      <c r="D69" s="96"/>
+      <c r="D69" s="90"/>
       <c r="L69" s="58" t="s">
         <v>122</v>
       </c>
@@ -7337,7 +7563,7 @@
       <c r="C70" s="69">
         <v>0.44</v>
       </c>
-      <c r="D70" s="97"/>
+      <c r="D70" s="91"/>
       <c r="L70" s="58" t="s">
         <v>123</v>
       </c>
@@ -7396,7 +7622,7 @@
       <c r="C74" s="69">
         <v>0.44</v>
       </c>
-      <c r="D74" s="95">
+      <c r="D74" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -7415,7 +7641,7 @@
       <c r="C75" s="69">
         <v>0.44</v>
       </c>
-      <c r="D75" s="96"/>
+      <c r="D75" s="90"/>
       <c r="L75" s="58" t="s">
         <v>128</v>
       </c>
@@ -7431,7 +7657,7 @@
       <c r="C76" s="69">
         <v>0.44</v>
       </c>
-      <c r="D76" s="97"/>
+      <c r="D76" s="91"/>
       <c r="L76" s="58" t="s">
         <v>129</v>
       </c>
@@ -7490,7 +7716,7 @@
       <c r="C80" s="69">
         <v>0.44</v>
       </c>
-      <c r="D80" s="95">
+      <c r="D80" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -7509,7 +7735,7 @@
       <c r="C81" s="69">
         <v>0.44</v>
       </c>
-      <c r="D81" s="96"/>
+      <c r="D81" s="90"/>
       <c r="L81" s="58" t="s">
         <v>134</v>
       </c>
@@ -7525,7 +7751,7 @@
       <c r="C82" s="48">
         <v>0.44</v>
       </c>
-      <c r="D82" s="97"/>
+      <c r="D82" s="91"/>
       <c r="L82" s="58" t="s">
         <v>135</v>
       </c>
@@ -8210,14 +8436,14 @@
       <c r="A2" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="64"/>
@@ -8312,7 +8538,7 @@
       <c r="C11" s="48">
         <v>0.44</v>
       </c>
-      <c r="D11" s="95">
+      <c r="D11" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -8327,7 +8553,7 @@
       <c r="C12" s="48">
         <v>0.44</v>
       </c>
-      <c r="D12" s="96"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
       <c r="G12" s="64"/>
@@ -8339,7 +8565,7 @@
       <c r="C13" s="48">
         <v>0.44</v>
       </c>
-      <c r="D13" s="97"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
       <c r="G13" s="64"/>
@@ -8403,7 +8629,7 @@
       <c r="C21" s="48">
         <v>0.44</v>
       </c>
-      <c r="D21" s="95">
+      <c r="D21" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -8415,7 +8641,7 @@
       <c r="C22" s="48">
         <v>0.44</v>
       </c>
-      <c r="D22" s="96"/>
+      <c r="D22" s="90"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="75" t="s">
@@ -8424,20 +8650,20 @@
       <c r="C23" s="48">
         <v>0.44</v>
       </c>
-      <c r="D23" s="97"/>
+      <c r="D23" s="91"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="64"/>
@@ -8538,7 +8764,7 @@
       <c r="C39" s="48">
         <v>0.44</v>
       </c>
-      <c r="D39" s="95">
+      <c r="D39" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -8550,7 +8776,7 @@
       <c r="C40" s="48">
         <v>0.44</v>
       </c>
-      <c r="D40" s="96"/>
+      <c r="D40" s="90"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="75" t="s">
@@ -8559,20 +8785,20 @@
       <c r="C41" s="48">
         <v>0.44</v>
       </c>
-      <c r="D41" s="97"/>
+      <c r="D41" s="91"/>
     </row>
     <row r="44" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="B44" s="98" t="s">
+      <c r="B44" s="92" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="67" t="s">
@@ -8612,7 +8838,7 @@
       <c r="C51" s="48">
         <v>0.44</v>
       </c>
-      <c r="D51" s="95">
+      <c r="D51" s="89">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -8624,7 +8850,7 @@
       <c r="C52" s="48">
         <v>0.44</v>
       </c>
-      <c r="D52" s="96"/>
+      <c r="D52" s="90"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="75" t="s">
@@ -8633,7 +8859,7 @@
       <c r="C53" s="48">
         <v>0.44</v>
       </c>
-      <c r="D53" s="97"/>
+      <c r="D53" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8665,7 +8891,7 @@
   <dimension ref="B5:L24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8678,10 +8904,10 @@
   <sheetData>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="101"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="32">
         <v>7</v>
       </c>
@@ -8693,10 +8919,10 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="29" t="s">
         <v>68</v>
       </c>
@@ -8841,10 +9067,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3C697E-ABEF-4667-98F4-0971D011D4CA}">
-  <dimension ref="B4:I20"/>
+  <dimension ref="B4:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8854,207 +9080,217 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="98" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="E4" s="104" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="H4" s="109" t="s">
+      <c r="F4" s="99"/>
+      <c r="H4" s="86" t="s">
         <v>301</v>
       </c>
-      <c r="I4" s="110">
+      <c r="I4" s="87">
         <v>12026</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="101" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="E5" s="82" t="s">
+      <c r="C5" s="102"/>
+      <c r="E5" s="105" t="s">
         <v>288</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F5" s="83">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="79"/>
-      <c r="C6" s="80">
-        <v>1</v>
-      </c>
-      <c r="E6" s="82" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="79">
+        <v>2</v>
+      </c>
+      <c r="E6" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="F6" s="86">
+      <c r="F6" s="83">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="E7" s="82" t="s">
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="E7" s="105" t="s">
         <v>290</v>
       </c>
-      <c r="F7" s="86">
+      <c r="F7" s="83">
         <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
+      <c r="C8" s="99"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="101" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="C9" s="102"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80">
+      <c r="B10" s="103"/>
+      <c r="C10" s="79">
         <v>2</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="D10" s="88"/>
+      <c r="E10" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="100"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="E11" s="82" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="E11" s="105" t="s">
         <v>292</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="84">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="E12" s="82" t="s">
+      <c r="C12" s="99"/>
+      <c r="E12" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="84">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="80">
         <v>5.5</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="105" t="s">
         <v>285</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="110" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="111">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="82">
         <v>0.8</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="85">
         <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="E16" s="90" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="E16" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="F16" s="91">
+      <c r="F16" s="111">
         <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="104" t="str">
+      <c r="B17" s="98" t="str">
         <f>IF(C10=1,"","Ventana tipo (b)")</f>
         <v>Ventana tipo (b)</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="E17" s="90" t="s">
+      <c r="C17" s="99"/>
+      <c r="E17" s="106" t="s">
         <v>297</v>
       </c>
-      <c r="F17" s="93">
+      <c r="F17" s="112">
         <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="82" t="str">
+      <c r="B18" s="105" t="str">
         <f>IF(C10=1,"","L1: ancho [m]=")</f>
         <v>L1: ancho [m]=</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="80">
         <v>4.5</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="F18" s="92">
+      <c r="F18" s="85">
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="82" t="str">
+      <c r="B19" s="105" t="str">
         <f>IF(C10=1,"","H1: alto [m]=")</f>
         <v>H1: alto [m]=</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="81">
         <v>0.6</v>
       </c>
-      <c r="E19" s="90" t="s">
+      <c r="E19" s="106" t="s">
         <v>299</v>
       </c>
-      <c r="F19" s="92">
+      <c r="F19" s="85">
         <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="82" t="str">
+      <c r="B20" s="105" t="str">
         <f>IF(C10=1,"","Z1: alféizar [m]=")</f>
         <v>Z1: alféizar [m]=</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="82">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E20" s="94" t="s">
+      <c r="E20" s="107" t="s">
         <v>300</v>
       </c>
-      <c r="F20" s="92">
+      <c r="F20" s="85">
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="F24" s="87">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -9082,8 +9318,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9160,6 +9397,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BC8D1A6D9755BA4DACDC023AEE321D58" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8407c33dbc57c22b02890f9ab05f88f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cec9201-ec77-4532-add3-9cf0afa67a3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="414e73d62fa2934c35f1272b2dae311a" ns3:_="">
     <xsd:import namespace="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
@@ -9305,22 +9551,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB979463-6A6C-4761-86FC-11C8EC0FC4C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9338,7 +9583,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742AAA9-DDA3-4D79-8010-354B400D5BEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -9352,12 +9597,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/trydoc.xlsx
+++ b/trydoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpringProjects\spring-arquitectura-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B2BDBD-FB4D-46D6-B675-A8BB1010CE12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE2685B-E931-44A1-ADAA-C83467DD257D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E987C773-BE31-4315-B3C6-3EE316AFFFDE}"/>
   </bookViews>
@@ -1456,7 +1456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1770,13 +1770,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2005,6 +2044,44 @@
       <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="25" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2050,41 +2127,24 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="25" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -2120,13 +2180,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>38833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>23133</xdr:rowOff>
+      <xdr:rowOff>33391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2149,8 +2209,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639050" y="1000125"/>
-          <a:ext cx="1933575" cy="1918608"/>
+          <a:off x="7636119" y="1027968"/>
+          <a:ext cx="1933575" cy="1914211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2994,14 +3054,14 @@
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3374,14 +3434,14 @@
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
       <c r="H25" s="1"/>
       <c r="M25" s="14" t="s">
         <v>37</v>
@@ -3493,7 +3553,7 @@
       <c r="C37" s="48">
         <v>0.44</v>
       </c>
-      <c r="D37" s="89">
+      <c r="D37" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -3508,7 +3568,7 @@
       <c r="C38" s="48">
         <v>0.44</v>
       </c>
-      <c r="D38" s="90"/>
+      <c r="D38" s="100"/>
       <c r="O38" s="43" t="s">
         <v>110</v>
       </c>
@@ -3520,7 +3580,7 @@
       <c r="C39" s="48">
         <v>0.44</v>
       </c>
-      <c r="D39" s="91"/>
+      <c r="D39" s="101"/>
       <c r="O39" s="43" t="s">
         <v>111</v>
       </c>
@@ -3571,7 +3631,7 @@
       <c r="C45" s="49">
         <v>0.4</v>
       </c>
-      <c r="D45" s="89">
+      <c r="D45" s="99">
         <v>24.5</v>
       </c>
       <c r="O45" s="43" t="s">
@@ -3585,7 +3645,7 @@
       <c r="C46" s="49">
         <v>0.3</v>
       </c>
-      <c r="D46" s="90"/>
+      <c r="D46" s="100"/>
       <c r="O46" s="43" t="s">
         <v>117</v>
       </c>
@@ -3597,7 +3657,7 @@
       <c r="C47" s="49">
         <v>0.3</v>
       </c>
-      <c r="D47" s="91"/>
+      <c r="D47" s="101"/>
       <c r="O47" s="43" t="s">
         <v>118</v>
       </c>
@@ -3681,7 +3741,7 @@
       <c r="C57" s="45">
         <v>0.44</v>
       </c>
-      <c r="D57" s="89">
+      <c r="D57" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -3696,7 +3756,7 @@
       <c r="C58" s="45">
         <v>0.44</v>
       </c>
-      <c r="D58" s="90"/>
+      <c r="D58" s="100"/>
       <c r="O58" s="43" t="s">
         <v>129</v>
       </c>
@@ -3708,7 +3768,7 @@
       <c r="C59" s="45">
         <v>0.44</v>
       </c>
-      <c r="D59" s="91"/>
+      <c r="D59" s="101"/>
       <c r="O59" s="43" t="s">
         <v>130</v>
       </c>
@@ -3789,7 +3849,7 @@
       <c r="C69" s="45">
         <v>0.44</v>
       </c>
-      <c r="D69" s="89">
+      <c r="D69" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -3804,7 +3864,7 @@
       <c r="C70" s="45">
         <v>0.44</v>
       </c>
-      <c r="D70" s="90"/>
+      <c r="D70" s="100"/>
       <c r="O70" s="43" t="s">
         <v>141</v>
       </c>
@@ -3816,7 +3876,7 @@
       <c r="C71" s="45">
         <v>0.44</v>
       </c>
-      <c r="D71" s="91"/>
+      <c r="D71" s="101"/>
       <c r="O71" s="43" t="s">
         <v>142</v>
       </c>
@@ -3868,7 +3928,7 @@
       <c r="C77" s="48">
         <v>1</v>
       </c>
-      <c r="D77" s="89">
+      <c r="D77" s="99">
         <v>24.5</v>
       </c>
       <c r="O77" s="43" t="s">
@@ -3882,7 +3942,7 @@
       <c r="C78" s="48">
         <v>1</v>
       </c>
-      <c r="D78" s="90"/>
+      <c r="D78" s="100"/>
       <c r="O78" s="43" t="s">
         <v>149</v>
       </c>
@@ -3894,7 +3954,7 @@
       <c r="C79" s="48">
         <v>1</v>
       </c>
-      <c r="D79" s="91"/>
+      <c r="D79" s="101"/>
       <c r="O79" s="43" t="s">
         <v>150</v>
       </c>
@@ -3946,7 +4006,7 @@
       <c r="C85" s="48">
         <v>1</v>
       </c>
-      <c r="D85" s="89">
+      <c r="D85" s="99">
         <v>24.5</v>
       </c>
       <c r="O85" s="43" t="s">
@@ -3960,7 +4020,7 @@
       <c r="C86" s="48">
         <v>1</v>
       </c>
-      <c r="D86" s="90"/>
+      <c r="D86" s="100"/>
       <c r="O86" s="43" t="s">
         <v>157</v>
       </c>
@@ -3972,7 +4032,7 @@
       <c r="C87" s="48">
         <v>1</v>
       </c>
-      <c r="D87" s="91"/>
+      <c r="D87" s="101"/>
       <c r="O87" s="43" t="s">
         <v>158</v>
       </c>
@@ -4024,7 +4084,7 @@
       <c r="C93" s="48">
         <v>1</v>
       </c>
-      <c r="D93" s="89">
+      <c r="D93" s="99">
         <v>24.5</v>
       </c>
       <c r="O93" s="43" t="s">
@@ -4038,7 +4098,7 @@
       <c r="C94" s="48">
         <v>1</v>
       </c>
-      <c r="D94" s="90"/>
+      <c r="D94" s="100"/>
       <c r="O94" s="43" t="s">
         <v>165</v>
       </c>
@@ -4050,7 +4110,7 @@
       <c r="C95" s="48">
         <v>1</v>
       </c>
-      <c r="D95" s="91"/>
+      <c r="D95" s="101"/>
       <c r="O95" s="43" t="s">
         <v>166</v>
       </c>
@@ -4102,7 +4162,7 @@
       <c r="C101" s="48">
         <v>1</v>
       </c>
-      <c r="D101" s="89">
+      <c r="D101" s="99">
         <v>24.5</v>
       </c>
       <c r="O101" s="43" t="s">
@@ -4116,7 +4176,7 @@
       <c r="C102" s="48">
         <v>1</v>
       </c>
-      <c r="D102" s="90"/>
+      <c r="D102" s="100"/>
       <c r="O102" s="43" t="s">
         <v>173</v>
       </c>
@@ -4128,7 +4188,7 @@
       <c r="C103" s="48">
         <v>1</v>
       </c>
-      <c r="D103" s="91"/>
+      <c r="D103" s="101"/>
       <c r="O103" s="43" t="s">
         <v>174</v>
       </c>
@@ -4180,7 +4240,7 @@
       <c r="C109" s="48">
         <v>1</v>
       </c>
-      <c r="D109" s="89">
+      <c r="D109" s="99">
         <v>23.1</v>
       </c>
       <c r="O109" s="43" t="s">
@@ -4194,7 +4254,7 @@
       <c r="C110" s="48">
         <v>1</v>
       </c>
-      <c r="D110" s="90"/>
+      <c r="D110" s="100"/>
       <c r="O110" s="43" t="s">
         <v>181</v>
       </c>
@@ -4206,7 +4266,7 @@
       <c r="C111" s="48">
         <v>1</v>
       </c>
-      <c r="D111" s="91"/>
+      <c r="D111" s="101"/>
       <c r="O111" s="43" t="s">
         <v>182</v>
       </c>
@@ -4258,7 +4318,7 @@
       <c r="C117" s="48">
         <v>1</v>
       </c>
-      <c r="D117" s="89">
+      <c r="D117" s="99">
         <v>23.1</v>
       </c>
       <c r="O117" s="43" t="s">
@@ -4272,7 +4332,7 @@
       <c r="C118" s="48">
         <v>1</v>
       </c>
-      <c r="D118" s="90"/>
+      <c r="D118" s="100"/>
       <c r="O118" s="43" t="s">
         <v>189</v>
       </c>
@@ -4284,7 +4344,7 @@
       <c r="C119" s="48">
         <v>1</v>
       </c>
-      <c r="D119" s="91"/>
+      <c r="D119" s="101"/>
       <c r="O119" s="43" t="s">
         <v>190</v>
       </c>
@@ -4451,7 +4511,7 @@
       <c r="C137" s="48">
         <v>1</v>
       </c>
-      <c r="D137" s="89">
+      <c r="D137" s="99">
         <v>23.1</v>
       </c>
     </row>
@@ -4462,7 +4522,7 @@
       <c r="C138" s="48">
         <v>1</v>
       </c>
-      <c r="D138" s="90"/>
+      <c r="D138" s="100"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B139" s="35" t="s">
@@ -4471,20 +4531,20 @@
       <c r="C139" s="48">
         <v>1</v>
       </c>
-      <c r="D139" s="91"/>
+      <c r="D139" s="101"/>
     </row>
     <row r="142" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A142" s="78">
         <v>1.3</v>
       </c>
-      <c r="B142" s="92" t="s">
+      <c r="B142" s="102" t="s">
         <v>269</v>
       </c>
-      <c r="C142" s="92"/>
-      <c r="D142" s="92"/>
-      <c r="E142" s="92"/>
-      <c r="F142" s="92"/>
-      <c r="G142" s="92"/>
+      <c r="C142" s="102"/>
+      <c r="D142" s="102"/>
+      <c r="E142" s="102"/>
+      <c r="F142" s="102"/>
+      <c r="G142" s="102"/>
     </row>
     <row r="144" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B144" s="33" t="s">
@@ -4542,7 +4602,7 @@
       <c r="C152" s="48">
         <v>0.44</v>
       </c>
-      <c r="D152" s="89">
+      <c r="D152" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -4554,7 +4614,7 @@
       <c r="C153" s="48">
         <v>0.44</v>
       </c>
-      <c r="D153" s="90"/>
+      <c r="D153" s="100"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="35" t="s">
@@ -4563,10 +4623,16 @@
       <c r="C154" s="48">
         <v>0.44</v>
       </c>
-      <c r="D154" s="91"/>
+      <c r="D154" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D57:D59"/>
     <mergeCell ref="D117:D119"/>
     <mergeCell ref="D137:D139"/>
     <mergeCell ref="B142:G142"/>
@@ -4576,12 +4642,6 @@
     <mergeCell ref="D93:D95"/>
     <mergeCell ref="D101:D103"/>
     <mergeCell ref="D109:D111"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D57:D59"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B23" xr:uid="{DF06D1ED-5973-4F52-9D1D-25867230B13C}">
@@ -4633,28 +4693,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="103" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
     </row>
     <row r="2" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -5031,14 +5091,14 @@
       <c r="A25" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="102" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
       <c r="H25" s="1"/>
       <c r="M25" s="14" t="s">
         <v>37</v>
@@ -5149,7 +5209,7 @@
       <c r="C37" s="48">
         <v>0.44</v>
       </c>
-      <c r="D37" s="89">
+      <c r="D37" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -5164,7 +5224,7 @@
       <c r="C38" s="48">
         <v>0.44</v>
       </c>
-      <c r="D38" s="90"/>
+      <c r="D38" s="100"/>
       <c r="O38" s="43" t="s">
         <v>110</v>
       </c>
@@ -5176,7 +5236,7 @@
       <c r="C39" s="48">
         <v>0.44</v>
       </c>
-      <c r="D39" s="91"/>
+      <c r="D39" s="101"/>
       <c r="O39" s="43" t="s">
         <v>111</v>
       </c>
@@ -5227,7 +5287,7 @@
       <c r="C45" s="48">
         <v>0.4</v>
       </c>
-      <c r="D45" s="89">
+      <c r="D45" s="99">
         <v>24.5</v>
       </c>
       <c r="O45" s="43" t="s">
@@ -5241,7 +5301,7 @@
       <c r="C46" s="48">
         <v>0.3</v>
       </c>
-      <c r="D46" s="90"/>
+      <c r="D46" s="100"/>
       <c r="O46" s="43" t="s">
         <v>117</v>
       </c>
@@ -5253,7 +5313,7 @@
       <c r="C47" s="48">
         <v>0.3</v>
       </c>
-      <c r="D47" s="91"/>
+      <c r="D47" s="101"/>
       <c r="O47" s="43" t="s">
         <v>118</v>
       </c>
@@ -5334,7 +5394,7 @@
       <c r="C57" s="48">
         <v>0.44</v>
       </c>
-      <c r="D57" s="89">
+      <c r="D57" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -5349,7 +5409,7 @@
       <c r="C58" s="48">
         <v>0.44</v>
       </c>
-      <c r="D58" s="90"/>
+      <c r="D58" s="100"/>
       <c r="O58" s="43" t="s">
         <v>129</v>
       </c>
@@ -5361,7 +5421,7 @@
       <c r="C59" s="48">
         <v>0.44</v>
       </c>
-      <c r="D59" s="91"/>
+      <c r="D59" s="101"/>
       <c r="O59" s="43" t="s">
         <v>130</v>
       </c>
@@ -5442,7 +5502,7 @@
       <c r="C69" s="48">
         <v>0.44</v>
       </c>
-      <c r="D69" s="89">
+      <c r="D69" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -5457,7 +5517,7 @@
       <c r="C70" s="48">
         <v>0.44</v>
       </c>
-      <c r="D70" s="90"/>
+      <c r="D70" s="100"/>
       <c r="O70" s="43" t="s">
         <v>141</v>
       </c>
@@ -5469,7 +5529,7 @@
       <c r="C71" s="48">
         <v>0.44</v>
       </c>
-      <c r="D71" s="91"/>
+      <c r="D71" s="101"/>
       <c r="O71" s="43" t="s">
         <v>142</v>
       </c>
@@ -5521,7 +5581,7 @@
       <c r="C77" s="48">
         <v>1</v>
       </c>
-      <c r="D77" s="89">
+      <c r="D77" s="99">
         <v>24.5</v>
       </c>
       <c r="O77" s="43" t="s">
@@ -5535,7 +5595,7 @@
       <c r="C78" s="48">
         <v>1</v>
       </c>
-      <c r="D78" s="90"/>
+      <c r="D78" s="100"/>
       <c r="O78" s="43" t="s">
         <v>149</v>
       </c>
@@ -5547,7 +5607,7 @@
       <c r="C79" s="48">
         <v>1</v>
       </c>
-      <c r="D79" s="91"/>
+      <c r="D79" s="101"/>
       <c r="O79" s="43" t="s">
         <v>150</v>
       </c>
@@ -5599,7 +5659,7 @@
       <c r="C85" s="48">
         <v>1</v>
       </c>
-      <c r="D85" s="89">
+      <c r="D85" s="99">
         <v>24.5</v>
       </c>
       <c r="O85" s="43" t="s">
@@ -5613,7 +5673,7 @@
       <c r="C86" s="48">
         <v>1</v>
       </c>
-      <c r="D86" s="90"/>
+      <c r="D86" s="100"/>
       <c r="O86" s="43" t="s">
         <v>157</v>
       </c>
@@ -5625,7 +5685,7 @@
       <c r="C87" s="48">
         <v>1</v>
       </c>
-      <c r="D87" s="91"/>
+      <c r="D87" s="101"/>
       <c r="O87" s="43" t="s">
         <v>158</v>
       </c>
@@ -5677,7 +5737,7 @@
       <c r="C93" s="48">
         <v>1</v>
       </c>
-      <c r="D93" s="89">
+      <c r="D93" s="99">
         <v>24.5</v>
       </c>
       <c r="O93" s="43" t="s">
@@ -5691,7 +5751,7 @@
       <c r="C94" s="48">
         <v>1</v>
       </c>
-      <c r="D94" s="90"/>
+      <c r="D94" s="100"/>
       <c r="O94" s="43" t="s">
         <v>165</v>
       </c>
@@ -5703,7 +5763,7 @@
       <c r="C95" s="48">
         <v>1</v>
       </c>
-      <c r="D95" s="91"/>
+      <c r="D95" s="101"/>
       <c r="O95" s="43" t="s">
         <v>166</v>
       </c>
@@ -5755,7 +5815,7 @@
       <c r="C101" s="48">
         <v>1</v>
       </c>
-      <c r="D101" s="89">
+      <c r="D101" s="99">
         <v>24.5</v>
       </c>
       <c r="O101" s="43" t="s">
@@ -5769,7 +5829,7 @@
       <c r="C102" s="48">
         <v>1</v>
       </c>
-      <c r="D102" s="90"/>
+      <c r="D102" s="100"/>
       <c r="O102" s="43" t="s">
         <v>173</v>
       </c>
@@ -5781,7 +5841,7 @@
       <c r="C103" s="48">
         <v>1</v>
       </c>
-      <c r="D103" s="91"/>
+      <c r="D103" s="101"/>
       <c r="O103" s="43" t="s">
         <v>174</v>
       </c>
@@ -5833,7 +5893,7 @@
       <c r="C109" s="48">
         <v>1</v>
       </c>
-      <c r="D109" s="89">
+      <c r="D109" s="99">
         <v>23.1</v>
       </c>
       <c r="O109" s="43" t="s">
@@ -5847,7 +5907,7 @@
       <c r="C110" s="48">
         <v>1</v>
       </c>
-      <c r="D110" s="90"/>
+      <c r="D110" s="100"/>
       <c r="O110" s="43" t="s">
         <v>181</v>
       </c>
@@ -5859,7 +5919,7 @@
       <c r="C111" s="48">
         <v>1</v>
       </c>
-      <c r="D111" s="91"/>
+      <c r="D111" s="101"/>
       <c r="O111" s="43" t="s">
         <v>182</v>
       </c>
@@ -5911,7 +5971,7 @@
       <c r="C117" s="48">
         <v>1</v>
       </c>
-      <c r="D117" s="89">
+      <c r="D117" s="99">
         <v>23.1</v>
       </c>
       <c r="O117" s="43" t="s">
@@ -5925,7 +5985,7 @@
       <c r="C118" s="48">
         <v>1</v>
       </c>
-      <c r="D118" s="90"/>
+      <c r="D118" s="100"/>
       <c r="O118" s="43" t="s">
         <v>189</v>
       </c>
@@ -5937,7 +5997,7 @@
       <c r="C119" s="48">
         <v>1</v>
       </c>
-      <c r="D119" s="91"/>
+      <c r="D119" s="101"/>
       <c r="O119" s="43" t="s">
         <v>190</v>
       </c>
@@ -6104,7 +6164,7 @@
       <c r="C137" s="48">
         <v>1</v>
       </c>
-      <c r="D137" s="89">
+      <c r="D137" s="99">
         <v>23.1</v>
       </c>
     </row>
@@ -6115,7 +6175,7 @@
       <c r="C138" s="48">
         <v>1</v>
       </c>
-      <c r="D138" s="90"/>
+      <c r="D138" s="100"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B139" s="35" t="s">
@@ -6124,20 +6184,20 @@
       <c r="C139" s="48">
         <v>1</v>
       </c>
-      <c r="D139" s="91"/>
+      <c r="D139" s="101"/>
     </row>
     <row r="142" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B142" s="92" t="s">
+      <c r="B142" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="C142" s="92"/>
-      <c r="D142" s="92"/>
-      <c r="E142" s="92"/>
-      <c r="F142" s="92"/>
-      <c r="G142" s="92"/>
+      <c r="C142" s="102"/>
+      <c r="D142" s="102"/>
+      <c r="E142" s="102"/>
+      <c r="F142" s="102"/>
+      <c r="G142" s="102"/>
     </row>
     <row r="144" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B144" s="33" t="s">
@@ -6198,7 +6258,7 @@
       <c r="C152" s="48">
         <v>0.44</v>
       </c>
-      <c r="D152" s="89">
+      <c r="D152" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -6210,7 +6270,7 @@
       <c r="C153" s="48">
         <v>0.44</v>
       </c>
-      <c r="D153" s="90"/>
+      <c r="D153" s="100"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="35" t="s">
@@ -6219,10 +6279,16 @@
       <c r="C154" s="48">
         <v>0.44</v>
       </c>
-      <c r="D154" s="91"/>
+      <c r="D154" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D45:D47"/>
     <mergeCell ref="D117:D119"/>
     <mergeCell ref="D137:D139"/>
     <mergeCell ref="B142:G142"/>
@@ -6233,12 +6299,6 @@
     <mergeCell ref="D93:D95"/>
     <mergeCell ref="D101:D103"/>
     <mergeCell ref="D109:D111"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D45:D47"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B23" xr:uid="{5F032077-0F11-4022-B12C-DE4FE12F1034}">
@@ -6293,14 +6353,14 @@
       <c r="A2" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
       <c r="L2" s="51" t="s">
         <v>15</v>
       </c>
@@ -6614,14 +6674,14 @@
       <c r="A16" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="102" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
       <c r="L16" s="55" t="s">
         <v>28</v>
       </c>
@@ -6776,14 +6836,14 @@
       <c r="A25" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="102" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
       <c r="L25" s="55" t="s">
         <v>37</v>
       </c>
@@ -6939,7 +6999,7 @@
       <c r="C34" s="48">
         <v>0.44</v>
       </c>
-      <c r="D34" s="89">
+      <c r="D34" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -6963,7 +7023,7 @@
       <c r="C35" s="48">
         <v>0.44</v>
       </c>
-      <c r="D35" s="90"/>
+      <c r="D35" s="100"/>
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -6984,7 +7044,7 @@
       <c r="C36" s="48">
         <v>0.44</v>
       </c>
-      <c r="D36" s="91"/>
+      <c r="D36" s="101"/>
       <c r="E36" s="64"/>
       <c r="F36" s="64"/>
       <c r="G36" s="64"/>
@@ -7120,7 +7180,7 @@
       <c r="C44" s="48">
         <v>0.44</v>
       </c>
-      <c r="D44" s="89">
+      <c r="D44" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -7141,7 +7201,7 @@
       <c r="C45" s="48">
         <v>0.44</v>
       </c>
-      <c r="D45" s="90"/>
+      <c r="D45" s="100"/>
       <c r="L45" s="60" t="s">
         <v>99</v>
       </c>
@@ -7159,7 +7219,7 @@
       <c r="C46" s="48">
         <v>0.44</v>
       </c>
-      <c r="D46" s="91"/>
+      <c r="D46" s="101"/>
       <c r="L46" s="58" t="s">
         <v>100</v>
       </c>
@@ -7194,14 +7254,14 @@
       <c r="A49" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="B49" s="92" t="s">
+      <c r="B49" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
       <c r="L49" s="58" t="s">
         <v>103</v>
       </c>
@@ -7359,7 +7419,7 @@
       <c r="C58" s="69">
         <v>0.44</v>
       </c>
-      <c r="D58" s="89">
+      <c r="D58" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -7381,7 +7441,7 @@
       <c r="C59" s="69">
         <v>0.44</v>
       </c>
-      <c r="D59" s="90"/>
+      <c r="D59" s="100"/>
       <c r="E59" s="64"/>
       <c r="F59" s="64"/>
       <c r="G59" s="64"/>
@@ -7400,7 +7460,7 @@
       <c r="C60" s="69">
         <v>0.44</v>
       </c>
-      <c r="D60" s="91"/>
+      <c r="D60" s="101"/>
       <c r="E60" s="64"/>
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
@@ -7528,7 +7588,7 @@
       <c r="C68" s="69">
         <v>0.44</v>
       </c>
-      <c r="D68" s="89">
+      <c r="D68" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -7547,7 +7607,7 @@
       <c r="C69" s="69">
         <v>0.44</v>
       </c>
-      <c r="D69" s="90"/>
+      <c r="D69" s="100"/>
       <c r="L69" s="58" t="s">
         <v>122</v>
       </c>
@@ -7563,7 +7623,7 @@
       <c r="C70" s="69">
         <v>0.44</v>
       </c>
-      <c r="D70" s="91"/>
+      <c r="D70" s="101"/>
       <c r="L70" s="58" t="s">
         <v>123</v>
       </c>
@@ -7622,7 +7682,7 @@
       <c r="C74" s="69">
         <v>0.44</v>
       </c>
-      <c r="D74" s="89">
+      <c r="D74" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -7641,7 +7701,7 @@
       <c r="C75" s="69">
         <v>0.44</v>
       </c>
-      <c r="D75" s="90"/>
+      <c r="D75" s="100"/>
       <c r="L75" s="58" t="s">
         <v>128</v>
       </c>
@@ -7657,7 +7717,7 @@
       <c r="C76" s="69">
         <v>0.44</v>
       </c>
-      <c r="D76" s="91"/>
+      <c r="D76" s="101"/>
       <c r="L76" s="58" t="s">
         <v>129</v>
       </c>
@@ -7716,7 +7776,7 @@
       <c r="C80" s="69">
         <v>0.44</v>
       </c>
-      <c r="D80" s="89">
+      <c r="D80" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -7735,7 +7795,7 @@
       <c r="C81" s="69">
         <v>0.44</v>
       </c>
-      <c r="D81" s="90"/>
+      <c r="D81" s="100"/>
       <c r="L81" s="58" t="s">
         <v>134</v>
       </c>
@@ -7751,7 +7811,7 @@
       <c r="C82" s="48">
         <v>0.44</v>
       </c>
-      <c r="D82" s="91"/>
+      <c r="D82" s="101"/>
       <c r="L82" s="58" t="s">
         <v>135</v>
       </c>
@@ -8374,16 +8434,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="B49:G49"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="B49:G49"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B13" xr:uid="{5FEB7208-9EC2-4939-A7BD-9E91958F93F6}">
@@ -8436,14 +8496,14 @@
       <c r="A2" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="102" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="64"/>
@@ -8538,7 +8598,7 @@
       <c r="C11" s="48">
         <v>0.44</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -8553,7 +8613,7 @@
       <c r="C12" s="48">
         <v>0.44</v>
       </c>
-      <c r="D12" s="90"/>
+      <c r="D12" s="100"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
       <c r="G12" s="64"/>
@@ -8565,7 +8625,7 @@
       <c r="C13" s="48">
         <v>0.44</v>
       </c>
-      <c r="D13" s="91"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
       <c r="G13" s="64"/>
@@ -8629,7 +8689,7 @@
       <c r="C21" s="48">
         <v>0.44</v>
       </c>
-      <c r="D21" s="89">
+      <c r="D21" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -8641,7 +8701,7 @@
       <c r="C22" s="48">
         <v>0.44</v>
       </c>
-      <c r="D22" s="90"/>
+      <c r="D22" s="100"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="75" t="s">
@@ -8650,20 +8710,20 @@
       <c r="C23" s="48">
         <v>0.44</v>
       </c>
-      <c r="D23" s="91"/>
+      <c r="D23" s="101"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="64"/>
@@ -8764,7 +8824,7 @@
       <c r="C39" s="48">
         <v>0.44</v>
       </c>
-      <c r="D39" s="89">
+      <c r="D39" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -8776,7 +8836,7 @@
       <c r="C40" s="48">
         <v>0.44</v>
       </c>
-      <c r="D40" s="90"/>
+      <c r="D40" s="100"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="75" t="s">
@@ -8785,20 +8845,20 @@
       <c r="C41" s="48">
         <v>0.44</v>
       </c>
-      <c r="D41" s="91"/>
+      <c r="D41" s="101"/>
     </row>
     <row r="44" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="67" t="s">
@@ -8838,7 +8898,7 @@
       <c r="C51" s="48">
         <v>0.44</v>
       </c>
-      <c r="D51" s="89">
+      <c r="D51" s="99">
         <f>1.2*2.1</f>
         <v>2.52</v>
       </c>
@@ -8850,7 +8910,7 @@
       <c r="C52" s="48">
         <v>0.44</v>
       </c>
-      <c r="D52" s="90"/>
+      <c r="D52" s="100"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="75" t="s">
@@ -8859,7 +8919,7 @@
       <c r="C53" s="48">
         <v>0.44</v>
       </c>
-      <c r="D53" s="91"/>
+      <c r="D53" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8904,10 +8964,10 @@
   <sheetData>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="95"/>
+      <c r="C6" s="105"/>
       <c r="D6" s="32">
         <v>7</v>
       </c>
@@ -8919,10 +8979,10 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="29" t="s">
         <v>68</v>
       </c>
@@ -9069,8 +9129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3C697E-ABEF-4667-98F4-0971D011D4CA}">
   <dimension ref="B4:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9080,15 +9140,15 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="99"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="16"/>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="F4" s="99"/>
+      <c r="F4" s="109"/>
       <c r="H4" s="86" t="s">
         <v>301</v>
       </c>
@@ -9097,11 +9157,11 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="111" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="E5" s="105" t="s">
+      <c r="C5" s="112"/>
+      <c r="E5" s="91" t="s">
         <v>288</v>
       </c>
       <c r="F5" s="83">
@@ -9109,21 +9169,21 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="103"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="79">
         <v>2</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="91" t="s">
         <v>289</v>
       </c>
       <c r="F6" s="83">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="E7" s="105" t="s">
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="E7" s="91" t="s">
         <v>290</v>
       </c>
       <c r="F7" s="83">
@@ -9131,36 +9191,36 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="113" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
+      <c r="C8" s="114"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="103"/>
-      <c r="C10" s="79">
+      <c r="C9" s="116"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="117"/>
+      <c r="C10" s="118">
         <v>2</v>
       </c>
       <c r="D10" s="88"/>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="110"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="E11" s="91" t="s">
         <v>292</v>
       </c>
       <c r="F11" s="84">
@@ -9168,11 +9228,11 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="E12" s="105" t="s">
+      <c r="C12" s="109"/>
+      <c r="E12" s="91" t="s">
         <v>293</v>
       </c>
       <c r="F12" s="84">
@@ -9180,37 +9240,37 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="91" t="s">
         <v>284</v>
       </c>
       <c r="C13" s="80">
         <v>5.5</v>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="91" t="s">
         <v>285</v>
       </c>
       <c r="C14" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="96" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="111">
+      <c r="F14" s="97">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="91" t="s">
         <v>286</v>
       </c>
       <c r="C15" s="82">
         <v>0.8</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="92" t="s">
         <v>295</v>
       </c>
       <c r="F15" s="85">
@@ -9218,37 +9278,37 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="E16" s="110" t="s">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="E16" s="96" t="s">
         <v>296</v>
       </c>
-      <c r="F16" s="111">
+      <c r="F16" s="97">
         <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="98" t="str">
+      <c r="B17" s="108" t="str">
         <f>IF(C10=1,"","Ventana tipo (b)")</f>
         <v>Ventana tipo (b)</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="E17" s="106" t="s">
+      <c r="C17" s="109"/>
+      <c r="E17" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="F17" s="112">
+      <c r="F17" s="98">
         <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="105" t="str">
+      <c r="B18" s="91" t="str">
         <f>IF(C10=1,"","L1: ancho [m]=")</f>
         <v>L1: ancho [m]=</v>
       </c>
       <c r="C18" s="80">
         <v>4.5</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="92" t="s">
         <v>298</v>
       </c>
       <c r="F18" s="85">
@@ -9256,14 +9316,14 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="105" t="str">
+      <c r="B19" s="91" t="str">
         <f>IF(C10=1,"","H1: alto [m]=")</f>
         <v>H1: alto [m]=</v>
       </c>
       <c r="C19" s="81">
         <v>0.6</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="92" t="s">
         <v>299</v>
       </c>
       <c r="F19" s="85">
@@ -9271,14 +9331,14 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="105" t="str">
+      <c r="B20" s="91" t="str">
         <f>IF(C10=1,"","Z1: alféizar [m]=")</f>
         <v>Z1: alféizar [m]=</v>
       </c>
       <c r="C20" s="82">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E20" s="107" t="s">
+      <c r="E20" s="93" t="s">
         <v>300</v>
       </c>
       <c r="F20" s="85">
@@ -9397,12 +9457,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9552,15 +9609,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742AAA9-DDA3-4D79-8010-354B400D5BEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9584,17 +9652,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742AAA9-DDA3-4D79-8010-354B400D5BEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD8E3A9-B2B1-4B30-AEA3-2BD82C6793AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0cec9201-ec77-4532-add3-9cf0afa67a3d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>